--- a/Excel/BTECH_IT.xlsx
+++ b/Excel/BTECH_IT.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
-    <sheet name="Btech-IT" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2262,6 +2262,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2273,12 +2279,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2562,9 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2592,17 +2590,17 @@
       <c r="D1" s="4">
         <v>8109106899</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="20"/>
+      <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2617,17 +2615,17 @@
       <c r="D2" s="7">
         <v>7045179339</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2642,17 +2640,17 @@
       <c r="D3" s="7">
         <v>9397647551</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16"/>
+      <c r="E3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18"/>
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2667,17 +2665,17 @@
       <c r="D4" s="7">
         <v>9755541186</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16"/>
+      <c r="E4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2692,17 +2690,17 @@
       <c r="D5" s="7">
         <v>9685096714</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="E5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18"/>
       <c r="G5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2717,17 +2715,17 @@
       <c r="D6" s="7">
         <v>9867318827</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="E6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -2742,17 +2740,17 @@
       <c r="D7" s="7">
         <v>9993070605</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18"/>
       <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -2767,17 +2765,17 @@
       <c r="D8" s="7">
         <v>8105643681</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16"/>
+      <c r="E8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2792,17 +2790,17 @@
       <c r="D9" s="7">
         <v>8989819748</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16"/>
+      <c r="E9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2817,17 +2815,17 @@
       <c r="D10" s="7">
         <v>9826233312</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="E10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2842,17 +2840,17 @@
       <c r="D11" s="7">
         <v>7999995230</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2867,17 +2865,17 @@
       <c r="D12" s="7">
         <v>9827084220</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16"/>
+      <c r="E12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2892,17 +2890,17 @@
       <c r="D13" s="7">
         <v>9611885588</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16"/>
+      <c r="E13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2917,17 +2915,17 @@
       <c r="D14" s="7">
         <v>9595734646</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16"/>
+      <c r="E14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18"/>
       <c r="G14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2942,17 +2940,17 @@
       <c r="D15" s="7">
         <v>7795829396</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16"/>
+      <c r="E15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2967,17 +2965,17 @@
       <c r="D16" s="7">
         <v>9826826826</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16"/>
+      <c r="E16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18"/>
       <c r="G16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -2992,17 +2990,17 @@
       <c r="D17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3017,17 +3015,17 @@
       <c r="D18" s="7">
         <v>7828751725</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18"/>
       <c r="G18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -3042,17 +3040,17 @@
       <c r="D19" s="7">
         <v>7387005353</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16"/>
+      <c r="E19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3067,17 +3065,17 @@
       <c r="D20" s="7">
         <v>9425531803</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16"/>
+      <c r="E20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18"/>
       <c r="G20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3092,17 +3090,17 @@
       <c r="D21" s="7">
         <v>7987459132</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16"/>
+      <c r="E21" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18"/>
       <c r="G21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3117,17 +3115,17 @@
       <c r="D22" s="7">
         <v>6585393855</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="16"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3142,17 +3140,17 @@
       <c r="D23" s="7">
         <v>9424891440</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16"/>
+      <c r="E23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18"/>
       <c r="G23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3167,17 +3165,17 @@
       <c r="D24" s="7">
         <v>8447816350</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16"/>
+      <c r="E24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18"/>
       <c r="G24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="16"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -3192,17 +3190,17 @@
       <c r="D25" s="7">
         <v>9425407588</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16"/>
+      <c r="E25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3217,17 +3215,17 @@
       <c r="D26" s="7">
         <v>6024817828</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3242,17 +3240,17 @@
       <c r="D27" s="7">
         <v>8123389527</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="16"/>
+      <c r="E27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18"/>
       <c r="G27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -3267,17 +3265,17 @@
       <c r="D28" s="7">
         <v>8585901719</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16"/>
+      <c r="E28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18"/>
       <c r="G28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="16"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -3292,17 +3290,17 @@
       <c r="D29" s="7">
         <v>7042455915</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="16"/>
+      <c r="E29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3317,17 +3315,17 @@
       <c r="D30" s="7">
         <v>9555562191</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="16"/>
+      <c r="E30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18"/>
       <c r="G30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3342,17 +3340,17 @@
       <c r="D31" s="7">
         <v>8806870483</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16"/>
+      <c r="E31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18"/>
       <c r="G31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3367,17 +3365,17 @@
       <c r="D32" s="7">
         <v>8011033155</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16"/>
+      <c r="E32" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18"/>
       <c r="G32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="16"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3392,17 +3390,17 @@
       <c r="D33" s="7">
         <v>9971797743</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16"/>
+      <c r="E33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18"/>
       <c r="G33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="16"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3417,17 +3415,17 @@
       <c r="D34" s="7">
         <v>8805070079</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16"/>
+      <c r="E34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18"/>
       <c r="G34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="I34" s="16"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -3442,17 +3440,17 @@
       <c r="D35" s="7">
         <v>9755097730</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="16"/>
+      <c r="E35" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18"/>
       <c r="G35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="16"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -3467,17 +3465,17 @@
       <c r="D36" s="7">
         <v>7828077572</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16"/>
+      <c r="E36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18"/>
       <c r="G36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I36" s="16"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -3492,17 +3490,17 @@
       <c r="D37" s="7">
         <v>8225905616</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16"/>
+      <c r="E37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18"/>
       <c r="G37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="16"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -3517,17 +3515,17 @@
       <c r="D38" s="7">
         <v>9705948145</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="16"/>
+      <c r="E38" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18"/>
       <c r="G38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="I38" s="16"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -3542,17 +3540,17 @@
       <c r="D39" s="7">
         <v>9822163925</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="16"/>
+      <c r="E39" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18"/>
       <c r="G39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I39" s="16"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -3567,17 +3565,17 @@
       <c r="D40" s="7">
         <v>9993363304</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="16"/>
+      <c r="E40" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="18"/>
       <c r="G40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="16"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -3592,17 +3590,17 @@
       <c r="D41" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="16"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="I41" s="16"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -3617,17 +3615,17 @@
       <c r="D42" s="7">
         <v>9826900441</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="16"/>
+      <c r="E42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18"/>
       <c r="G42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="16"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -3642,17 +3640,17 @@
       <c r="D43" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="16"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="16"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -3667,17 +3665,17 @@
       <c r="D44" s="7">
         <v>8989499842</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="16"/>
+      <c r="E44" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18"/>
       <c r="G44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="16"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -3692,17 +3690,17 @@
       <c r="D45" s="7">
         <v>8989733255</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="16"/>
+      <c r="E45" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18"/>
       <c r="G45" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I45" s="16"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -3717,17 +3715,17 @@
       <c r="D46" s="7">
         <v>9406619236</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="16"/>
+      <c r="E46" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18"/>
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="I46" s="16"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -3742,17 +3740,17 @@
       <c r="D47" s="7">
         <v>9755101234</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16"/>
+      <c r="E47" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18"/>
       <c r="G47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="16"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -3767,17 +3765,17 @@
       <c r="D48" s="7">
         <v>9907861001</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="16"/>
+      <c r="E48" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="18"/>
       <c r="G48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I48" s="16"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -3792,17 +3790,17 @@
       <c r="D49" s="7">
         <v>7827252475</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" s="16"/>
+      <c r="E49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18"/>
       <c r="G49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="I49" s="16"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -3817,17 +3815,17 @@
       <c r="D50" s="7">
         <v>8828013030</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="16"/>
+      <c r="E50" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18"/>
       <c r="G50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="16"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -3842,17 +3840,17 @@
       <c r="D51" s="7">
         <v>8878990880</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="16"/>
+      <c r="E51" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18"/>
       <c r="G51" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="I51" s="16"/>
+      <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -3867,17 +3865,17 @@
       <c r="D52" s="7">
         <v>7887625925</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="16"/>
+      <c r="E52" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="18"/>
       <c r="G52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="I52" s="16"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -3892,17 +3890,17 @@
       <c r="D53" s="7">
         <v>8602138675</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="16"/>
+      <c r="E53" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="18"/>
       <c r="G53" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I53" s="16"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -3917,17 +3915,17 @@
       <c r="D54" s="7">
         <v>7869060848</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="16"/>
+      <c r="E54" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="18"/>
       <c r="G54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="I54" s="16"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
@@ -3942,17 +3940,17 @@
       <c r="D55" s="7">
         <v>8095854077</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="16"/>
+      <c r="E55" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18"/>
       <c r="G55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="I55" s="16"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -3967,17 +3965,17 @@
       <c r="D56" s="7">
         <v>9098568668</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="16"/>
+      <c r="E56" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="18"/>
       <c r="G56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="I56" s="16"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -3992,17 +3990,17 @@
       <c r="D57" s="7">
         <v>8817407183</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="16"/>
+      <c r="E57" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18"/>
       <c r="G57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="I57" s="16"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -4017,17 +4015,17 @@
       <c r="D58" s="7">
         <v>9049590790</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="16"/>
+      <c r="E58" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="18"/>
       <c r="G58" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I58" s="16"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -4042,17 +4040,17 @@
       <c r="D59" s="7">
         <v>8878955783</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="16"/>
+      <c r="E59" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="18"/>
       <c r="G59" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I59" s="16"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
@@ -4067,17 +4065,17 @@
       <c r="D60" s="7">
         <v>8055485503</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="16"/>
+      <c r="E60" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="18"/>
       <c r="G60" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="16"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -4092,17 +4090,17 @@
       <c r="D61" s="7">
         <v>9479724991</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="16"/>
+      <c r="E61" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="18"/>
       <c r="G61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="I61" s="16"/>
+      <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
@@ -4117,17 +4115,17 @@
       <c r="D62" s="7">
         <v>8818911709</v>
       </c>
-      <c r="E62" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="16"/>
+      <c r="E62" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="18"/>
       <c r="G62" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="16"/>
+      <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -4142,17 +4140,17 @@
       <c r="D63" s="10">
         <v>9165179330</v>
       </c>
-      <c r="E63" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="16"/>
+      <c r="E63" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="18"/>
       <c r="G63" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="I63" s="16"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -4167,17 +4165,17 @@
       <c r="D64" s="7">
         <v>8602538867</v>
       </c>
-      <c r="E64" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="16"/>
+      <c r="E64" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="18"/>
       <c r="G64" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I64" s="16"/>
+      <c r="I64" s="18"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -4192,17 +4190,17 @@
       <c r="D65" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F65" s="16"/>
+      <c r="F65" s="18"/>
       <c r="G65" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="I65" s="16"/>
+      <c r="I65" s="18"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
@@ -4217,17 +4215,17 @@
       <c r="D66" s="7">
         <v>7389731092</v>
       </c>
-      <c r="E66" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="16"/>
+      <c r="E66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="18"/>
       <c r="G66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="I66" s="16"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -4242,17 +4240,17 @@
       <c r="D67" s="7">
         <v>8982221120</v>
       </c>
-      <c r="E67" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" s="16"/>
+      <c r="E67" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="18"/>
       <c r="G67" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="I67" s="16"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
@@ -4267,17 +4265,17 @@
       <c r="D68" s="7">
         <v>9754291872</v>
       </c>
-      <c r="E68" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="16"/>
+      <c r="E68" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="18"/>
       <c r="G68" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="I68" s="16"/>
+      <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
@@ -4292,17 +4290,17 @@
       <c r="D69" s="7">
         <v>8126124962</v>
       </c>
-      <c r="E69" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="16"/>
+      <c r="E69" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="18"/>
       <c r="G69" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="I69" s="16"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -4317,17 +4315,17 @@
       <c r="D70" s="7">
         <v>9179172460</v>
       </c>
-      <c r="E70" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" s="16"/>
+      <c r="E70" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="18"/>
       <c r="G70" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I70" s="16"/>
+      <c r="I70" s="18"/>
     </row>
     <row r="71" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -4342,17 +4340,17 @@
       <c r="D71" s="7">
         <v>9752305107</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="16"/>
+      <c r="E71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="18"/>
       <c r="G71" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I71" s="16"/>
+      <c r="I71" s="18"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -4367,17 +4365,17 @@
       <c r="D72" s="7">
         <v>9406649589</v>
       </c>
-      <c r="E72" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="16"/>
+      <c r="E72" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="18"/>
       <c r="G72" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="I72" s="16"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -4392,17 +4390,17 @@
       <c r="D73" s="7">
         <v>9685013001</v>
       </c>
-      <c r="E73" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="16"/>
+      <c r="E73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="18"/>
       <c r="G73" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="I73" s="16"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -4417,17 +4415,17 @@
       <c r="D74" s="7">
         <v>9685233022</v>
       </c>
-      <c r="E74" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74" s="16"/>
+      <c r="E74" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="18"/>
       <c r="G74" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I74" s="16"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -4442,17 +4440,17 @@
       <c r="D75" s="7">
         <v>7879163167</v>
       </c>
-      <c r="E75" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F75" s="16"/>
+      <c r="E75" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="18"/>
       <c r="G75" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="I75" s="16"/>
+      <c r="I75" s="18"/>
     </row>
     <row r="76" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
@@ -4467,17 +4465,17 @@
       <c r="D76" s="7">
         <v>8269710693</v>
       </c>
-      <c r="E76" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="16"/>
+      <c r="E76" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="18"/>
       <c r="G76" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="I76" s="16"/>
+      <c r="I76" s="18"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
@@ -4492,17 +4490,17 @@
       <c r="D77" s="7">
         <v>7804002219</v>
       </c>
-      <c r="E77" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F77" s="16"/>
+      <c r="E77" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="18"/>
       <c r="G77" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H77" s="15" t="s">
+      <c r="H77" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I77" s="16"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -4517,17 +4515,17 @@
       <c r="D78" s="7">
         <v>9644444509</v>
       </c>
-      <c r="E78" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="16"/>
+      <c r="E78" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="18"/>
       <c r="G78" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="15" t="s">
+      <c r="H78" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="I78" s="16"/>
+      <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -4542,17 +4540,17 @@
       <c r="D79" s="7">
         <v>8602747485</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F79" s="16"/>
+      <c r="E79" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="18"/>
       <c r="G79" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I79" s="16"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -4567,17 +4565,17 @@
       <c r="D80" s="7">
         <v>9713301388</v>
       </c>
-      <c r="E80" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F80" s="16"/>
+      <c r="E80" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="18"/>
       <c r="G80" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="I80" s="16"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -4592,17 +4590,17 @@
       <c r="D81" s="7">
         <v>9165360190</v>
       </c>
-      <c r="E81" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F81" s="16"/>
+      <c r="E81" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="18"/>
       <c r="G81" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H81" s="15" t="s">
+      <c r="H81" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="I81" s="16"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -4617,17 +4615,17 @@
       <c r="D82" s="7">
         <v>7748890171</v>
       </c>
-      <c r="E82" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F82" s="16"/>
+      <c r="E82" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="18"/>
       <c r="G82" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="H82" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="I82" s="16"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -4642,17 +4640,17 @@
       <c r="D83" s="7">
         <v>8458816298</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F83" s="16"/>
+      <c r="E83" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="18"/>
       <c r="G83" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H83" s="15" t="s">
+      <c r="H83" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="I83" s="16"/>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4667,17 +4665,17 @@
       <c r="D84" s="7">
         <v>9039531028</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="16"/>
+      <c r="E84" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="18"/>
       <c r="G84" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H84" s="15" t="s">
+      <c r="H84" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="I84" s="16"/>
+      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4692,17 +4690,17 @@
       <c r="D85" s="7">
         <v>8517012340</v>
       </c>
-      <c r="E85" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F85" s="16"/>
+      <c r="E85" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="18"/>
       <c r="G85" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="H85" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="I85" s="16"/>
+      <c r="I85" s="18"/>
     </row>
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4717,17 +4715,17 @@
       <c r="D86" s="7">
         <v>9644706115</v>
       </c>
-      <c r="E86" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="16"/>
+      <c r="E86" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="18"/>
       <c r="G86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H86" s="15" t="s">
+      <c r="H86" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="I86" s="16"/>
+      <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -4742,17 +4740,17 @@
       <c r="D87" s="7">
         <v>9617304100</v>
       </c>
-      <c r="E87" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F87" s="16"/>
+      <c r="E87" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="18"/>
       <c r="G87" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H87" s="15" t="s">
+      <c r="H87" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="I87" s="16"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
@@ -4767,17 +4765,17 @@
       <c r="D88" s="7">
         <v>7415836066</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="16"/>
+      <c r="E88" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="18"/>
       <c r="G88" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H88" s="15" t="s">
+      <c r="H88" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="I88" s="16"/>
+      <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -4792,17 +4790,17 @@
       <c r="D89" s="7">
         <v>8349817268</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="F89" s="16"/>
+      <c r="F89" s="18"/>
       <c r="G89" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="15" t="s">
+      <c r="H89" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="I89" s="16"/>
+      <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
@@ -4817,17 +4815,17 @@
       <c r="D90" s="7">
         <v>7999038285</v>
       </c>
-      <c r="E90" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" s="16"/>
+      <c r="E90" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="18"/>
       <c r="G90" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H90" s="15" t="s">
+      <c r="H90" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="I90" s="16"/>
+      <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
@@ -4842,17 +4840,17 @@
       <c r="D91" s="7">
         <v>7869340478</v>
       </c>
-      <c r="E91" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="16"/>
+      <c r="E91" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="18"/>
       <c r="G91" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="15" t="s">
+      <c r="H91" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="I91" s="16"/>
+      <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -4867,17 +4865,17 @@
       <c r="D92" s="7">
         <v>7747825050</v>
       </c>
-      <c r="E92" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F92" s="16"/>
+      <c r="E92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="18"/>
       <c r="G92" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H92" s="15" t="s">
+      <c r="H92" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="I92" s="16"/>
+      <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -4892,17 +4890,17 @@
       <c r="D93" s="7">
         <v>8461005700</v>
       </c>
-      <c r="E93" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F93" s="16"/>
+      <c r="E93" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="18"/>
       <c r="G93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="15" t="s">
+      <c r="H93" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="I93" s="16"/>
+      <c r="I93" s="18"/>
     </row>
     <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -4917,17 +4915,17 @@
       <c r="D94" s="7">
         <v>9827848869</v>
       </c>
-      <c r="E94" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" s="16"/>
+      <c r="E94" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="18"/>
       <c r="G94" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H94" s="15" t="s">
+      <c r="H94" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="I94" s="16"/>
+      <c r="I94" s="18"/>
     </row>
     <row r="95" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -4942,17 +4940,17 @@
       <c r="D95" s="7">
         <v>7389693242</v>
       </c>
-      <c r="E95" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" s="16"/>
+      <c r="E95" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="18"/>
       <c r="G95" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="H95" s="15" t="s">
+      <c r="H95" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="I95" s="16"/>
+      <c r="I95" s="18"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
@@ -4967,17 +4965,17 @@
       <c r="D96" s="7">
         <v>7049994945</v>
       </c>
-      <c r="E96" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="16"/>
+      <c r="E96" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="18"/>
       <c r="G96" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H96" s="15" t="s">
+      <c r="H96" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="I96" s="16"/>
+      <c r="I96" s="18"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -4992,17 +4990,17 @@
       <c r="D97" s="7">
         <v>7898682267</v>
       </c>
-      <c r="E97" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F97" s="16"/>
+      <c r="E97" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="18"/>
       <c r="G97" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="15" t="s">
+      <c r="H97" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I97" s="16"/>
+      <c r="I97" s="18"/>
     </row>
     <row r="98" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -5017,17 +5015,17 @@
       <c r="D98" s="7">
         <v>7225996655</v>
       </c>
-      <c r="E98" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="16"/>
+      <c r="E98" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="18"/>
       <c r="G98" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="H98" s="15" t="s">
+      <c r="H98" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="I98" s="16"/>
+      <c r="I98" s="18"/>
     </row>
     <row r="99" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5042,17 +5040,17 @@
       <c r="D99" s="7">
         <v>8989403886</v>
       </c>
-      <c r="E99" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F99" s="16"/>
+      <c r="E99" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="18"/>
       <c r="G99" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="H99" s="15" t="s">
+      <c r="H99" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I99" s="16"/>
+      <c r="I99" s="18"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -5067,17 +5065,17 @@
       <c r="D100" s="7">
         <v>7898019634</v>
       </c>
-      <c r="E100" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F100" s="16"/>
+      <c r="E100" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="18"/>
       <c r="G100" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H100" s="15" t="s">
+      <c r="H100" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="I100" s="16"/>
+      <c r="I100" s="18"/>
     </row>
     <row r="101" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -5092,17 +5090,17 @@
       <c r="D101" s="7">
         <v>7771999649</v>
       </c>
-      <c r="E101" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="16"/>
+      <c r="E101" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="18"/>
       <c r="G101" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H101" s="15" t="s">
+      <c r="H101" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="I101" s="16"/>
+      <c r="I101" s="18"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
@@ -5117,17 +5115,17 @@
       <c r="D102" s="7">
         <v>7772055520</v>
       </c>
-      <c r="E102" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F102" s="16"/>
+      <c r="E102" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="18"/>
       <c r="G102" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H102" s="15" t="s">
+      <c r="H102" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="I102" s="16"/>
+      <c r="I102" s="18"/>
     </row>
     <row r="103" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
@@ -5142,17 +5140,17 @@
       <c r="D103" s="7">
         <v>9977998113</v>
       </c>
-      <c r="E103" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F103" s="16"/>
+      <c r="E103" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="18"/>
       <c r="G103" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H103" s="15" t="s">
+      <c r="H103" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="I103" s="16"/>
+      <c r="I103" s="18"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -5167,17 +5165,17 @@
       <c r="D104" s="7">
         <v>9424835949</v>
       </c>
-      <c r="E104" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F104" s="16"/>
+      <c r="E104" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="18"/>
       <c r="G104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="H104" s="15" t="s">
+      <c r="H104" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I104" s="16"/>
+      <c r="I104" s="18"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
@@ -5192,17 +5190,17 @@
       <c r="D105" s="7">
         <v>9479444215</v>
       </c>
-      <c r="E105" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="16"/>
+      <c r="E105" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="18"/>
       <c r="G105" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H105" s="15" t="s">
+      <c r="H105" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I105" s="16"/>
+      <c r="I105" s="18"/>
     </row>
     <row r="106" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
@@ -5217,17 +5215,17 @@
       <c r="D106" s="7">
         <v>9753583488</v>
       </c>
-      <c r="E106" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="16"/>
+      <c r="E106" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="18"/>
       <c r="G106" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H106" s="15" t="s">
+      <c r="H106" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="I106" s="16"/>
+      <c r="I106" s="18"/>
     </row>
     <row r="107" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -5242,17 +5240,17 @@
       <c r="D107" s="7">
         <v>8878326313</v>
       </c>
-      <c r="E107" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="16"/>
+      <c r="E107" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="18"/>
       <c r="G107" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H107" s="15" t="s">
+      <c r="H107" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="I107" s="16"/>
+      <c r="I107" s="18"/>
     </row>
     <row r="108" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
@@ -5267,17 +5265,17 @@
       <c r="D108" s="7">
         <v>9977761644</v>
       </c>
-      <c r="E108" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="16"/>
+      <c r="E108" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="18"/>
       <c r="G108" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H108" s="15" t="s">
+      <c r="H108" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I108" s="16"/>
+      <c r="I108" s="18"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
@@ -5292,17 +5290,17 @@
       <c r="D109" s="7">
         <v>9752574365</v>
       </c>
-      <c r="E109" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="16"/>
+      <c r="E109" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="18"/>
       <c r="G109" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H109" s="15" t="s">
+      <c r="H109" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I109" s="16"/>
+      <c r="I109" s="18"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
@@ -5317,17 +5315,17 @@
       <c r="D110" s="7">
         <v>8358939259</v>
       </c>
-      <c r="E110" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F110" s="16"/>
+      <c r="E110" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="18"/>
       <c r="G110" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="15" t="s">
+      <c r="H110" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="I110" s="16"/>
+      <c r="I110" s="18"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
@@ -5342,17 +5340,17 @@
       <c r="D111" s="7">
         <v>9926822793</v>
       </c>
-      <c r="E111" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="16"/>
+      <c r="E111" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="18"/>
       <c r="G111" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="H111" s="15" t="s">
+      <c r="H111" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="I111" s="16"/>
+      <c r="I111" s="18"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
@@ -5367,17 +5365,17 @@
       <c r="D112" s="7">
         <v>9755766846</v>
       </c>
-      <c r="E112" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F112" s="16"/>
+      <c r="E112" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="18"/>
       <c r="G112" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="H112" s="15" t="s">
+      <c r="H112" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="I112" s="16"/>
+      <c r="I112" s="18"/>
     </row>
     <row r="113" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
@@ -5392,17 +5390,17 @@
       <c r="D113" s="7">
         <v>9009118756</v>
       </c>
-      <c r="E113" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F113" s="16"/>
+      <c r="E113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="18"/>
       <c r="G113" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H113" s="15" t="s">
+      <c r="H113" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="I113" s="16"/>
+      <c r="I113" s="18"/>
     </row>
     <row r="114" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
@@ -5417,17 +5415,17 @@
       <c r="D114" s="7">
         <v>7566016822</v>
       </c>
-      <c r="E114" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F114" s="16"/>
+      <c r="E114" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="18"/>
       <c r="G114" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H114" s="15" t="s">
+      <c r="H114" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="I114" s="16"/>
+      <c r="I114" s="18"/>
     </row>
     <row r="115" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
@@ -5442,17 +5440,17 @@
       <c r="D115" s="7">
         <v>8085675177</v>
       </c>
-      <c r="E115" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F115" s="16"/>
+      <c r="E115" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="18"/>
       <c r="G115" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H115" s="15" t="s">
+      <c r="H115" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I115" s="16"/>
+      <c r="I115" s="18"/>
     </row>
     <row r="116" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
@@ -5467,17 +5465,17 @@
       <c r="D116" s="7">
         <v>9109633739</v>
       </c>
-      <c r="E116" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F116" s="16"/>
+      <c r="E116" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="18"/>
       <c r="G116" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="15" t="s">
+      <c r="H116" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I116" s="16"/>
+      <c r="I116" s="18"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
@@ -5492,17 +5490,17 @@
       <c r="D117" s="7">
         <v>9755603309</v>
       </c>
-      <c r="E117" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F117" s="16"/>
+      <c r="E117" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="18"/>
       <c r="G117" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="15" t="s">
+      <c r="H117" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I117" s="16"/>
+      <c r="I117" s="18"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
@@ -5517,17 +5515,17 @@
       <c r="D118" s="7">
         <v>7697773909</v>
       </c>
-      <c r="E118" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F118" s="16"/>
+      <c r="E118" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="18"/>
       <c r="G118" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H118" s="15" t="s">
+      <c r="H118" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="I118" s="16"/>
+      <c r="I118" s="18"/>
     </row>
     <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
@@ -5542,17 +5540,17 @@
       <c r="D119" s="7">
         <v>9806083302</v>
       </c>
-      <c r="E119" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F119" s="16"/>
+      <c r="E119" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" s="18"/>
       <c r="G119" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H119" s="15" t="s">
+      <c r="H119" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I119" s="16"/>
+      <c r="I119" s="18"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
@@ -5567,17 +5565,17 @@
       <c r="D120" s="7">
         <v>7247087692</v>
       </c>
-      <c r="E120" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F120" s="16"/>
+      <c r="E120" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="18"/>
       <c r="G120" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H120" s="15" t="s">
+      <c r="H120" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="I120" s="16"/>
+      <c r="I120" s="18"/>
     </row>
     <row r="121" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
@@ -5592,17 +5590,17 @@
       <c r="D121" s="7">
         <v>94251710154</v>
       </c>
-      <c r="E121" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F121" s="16"/>
+      <c r="E121" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="18"/>
       <c r="G121" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H121" s="15" t="s">
+      <c r="H121" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I121" s="16"/>
+      <c r="I121" s="18"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
@@ -5617,17 +5615,17 @@
       <c r="D122" s="7">
         <v>9424852516</v>
       </c>
-      <c r="E122" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F122" s="16"/>
+      <c r="E122" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="18"/>
       <c r="G122" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H122" s="15" t="s">
+      <c r="H122" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I122" s="16"/>
+      <c r="I122" s="18"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -5642,17 +5640,17 @@
       <c r="D123" s="7">
         <v>7509227568</v>
       </c>
-      <c r="E123" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F123" s="16"/>
+      <c r="E123" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="18"/>
       <c r="G123" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H123" s="15" t="s">
+      <c r="H123" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="I123" s="16"/>
+      <c r="I123" s="18"/>
     </row>
     <row r="124" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
@@ -5667,17 +5665,17 @@
       <c r="D124" s="7">
         <v>9926090760</v>
       </c>
-      <c r="E124" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F124" s="16"/>
+      <c r="E124" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" s="18"/>
       <c r="G124" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H124" s="15" t="s">
+      <c r="H124" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I124" s="16"/>
+      <c r="I124" s="18"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
@@ -5692,17 +5690,17 @@
       <c r="D125" s="13">
         <v>9039160119</v>
       </c>
-      <c r="E125" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F125" s="18"/>
+      <c r="E125" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="20"/>
       <c r="G125" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H125" s="15" t="s">
+      <c r="H125" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="I125" s="16"/>
+      <c r="I125" s="18"/>
     </row>
     <row r="126" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
@@ -5717,17 +5715,17 @@
       <c r="D126" s="7">
         <v>9294889732</v>
       </c>
-      <c r="E126" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F126" s="16"/>
+      <c r="E126" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="18"/>
       <c r="G126" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H126" s="15" t="s">
+      <c r="H126" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I126" s="16"/>
+      <c r="I126" s="18"/>
     </row>
     <row r="127" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
@@ -5742,17 +5740,17 @@
       <c r="D127" s="7">
         <v>7987119832</v>
       </c>
-      <c r="E127" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F127" s="16"/>
+      <c r="E127" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="18"/>
       <c r="G127" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="15" t="s">
+      <c r="H127" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="I127" s="16"/>
+      <c r="I127" s="18"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
@@ -5767,17 +5765,17 @@
       <c r="D128" s="7">
         <v>8602231731</v>
       </c>
-      <c r="E128" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F128" s="16"/>
+      <c r="E128" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" s="18"/>
       <c r="G128" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H128" s="15" t="s">
+      <c r="H128" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I128" s="16"/>
+      <c r="I128" s="18"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -5792,17 +5790,17 @@
       <c r="D129" s="7">
         <v>7415282551</v>
       </c>
-      <c r="E129" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F129" s="16"/>
+      <c r="E129" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="18"/>
       <c r="G129" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H129" s="15" t="s">
+      <c r="H129" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="I129" s="16"/>
+      <c r="I129" s="18"/>
     </row>
     <row r="130" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
@@ -5817,17 +5815,17 @@
       <c r="D130" s="7">
         <v>9685678178</v>
       </c>
-      <c r="E130" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F130" s="16"/>
+      <c r="E130" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="18"/>
       <c r="G130" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H130" s="15" t="s">
+      <c r="H130" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I130" s="16"/>
+      <c r="I130" s="18"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
@@ -5842,17 +5840,17 @@
       <c r="D131" s="7">
         <v>8359012540</v>
       </c>
-      <c r="E131" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F131" s="16"/>
+      <c r="E131" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="18"/>
       <c r="G131" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H131" s="15" t="s">
+      <c r="H131" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I131" s="16"/>
+      <c r="I131" s="18"/>
     </row>
     <row r="132" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
@@ -5867,17 +5865,17 @@
       <c r="D132" s="7">
         <v>9977730090</v>
       </c>
-      <c r="E132" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F132" s="16"/>
+      <c r="E132" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="18"/>
       <c r="G132" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="15" t="s">
+      <c r="H132" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I132" s="16"/>
+      <c r="I132" s="18"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
@@ -5892,17 +5890,17 @@
       <c r="D133" s="7">
         <v>8989460050</v>
       </c>
-      <c r="E133" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" s="16"/>
+      <c r="E133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="18"/>
       <c r="G133" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="15" t="s">
+      <c r="H133" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I133" s="16"/>
+      <c r="I133" s="18"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
@@ -5917,17 +5915,17 @@
       <c r="D134" s="7">
         <v>9617851012</v>
       </c>
-      <c r="E134" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" s="16"/>
+      <c r="E134" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="18"/>
       <c r="G134" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="15" t="s">
+      <c r="H134" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I134" s="16"/>
+      <c r="I134" s="18"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
@@ -5942,17 +5940,17 @@
       <c r="D135" s="7">
         <v>8602536930</v>
       </c>
-      <c r="E135" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F135" s="16"/>
+      <c r="E135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" s="18"/>
       <c r="G135" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="15" t="s">
+      <c r="H135" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="I135" s="16"/>
+      <c r="I135" s="18"/>
     </row>
     <row r="136" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
@@ -5967,17 +5965,17 @@
       <c r="D136" s="7">
         <v>8871965573</v>
       </c>
-      <c r="E136" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F136" s="16"/>
+      <c r="E136" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" s="18"/>
       <c r="G136" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H136" s="15" t="s">
+      <c r="H136" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="I136" s="16"/>
+      <c r="I136" s="18"/>
     </row>
     <row r="137" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
@@ -5992,17 +5990,17 @@
       <c r="D137" s="7">
         <v>8827710625</v>
       </c>
-      <c r="E137" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F137" s="16"/>
+      <c r="E137" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" s="18"/>
       <c r="G137" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H137" s="15" t="s">
+      <c r="H137" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="I137" s="16"/>
+      <c r="I137" s="18"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -6017,17 +6015,17 @@
       <c r="D138" s="7">
         <v>9424822120</v>
       </c>
-      <c r="E138" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F138" s="16"/>
+      <c r="E138" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" s="18"/>
       <c r="G138" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H138" s="15" t="s">
+      <c r="H138" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I138" s="16"/>
+      <c r="I138" s="18"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
@@ -6042,17 +6040,17 @@
       <c r="D139" s="7">
         <v>8871006521</v>
       </c>
-      <c r="E139" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F139" s="16"/>
+      <c r="E139" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" s="18"/>
       <c r="G139" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H139" s="15" t="s">
+      <c r="H139" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I139" s="16"/>
+      <c r="I139" s="18"/>
     </row>
     <row r="140" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
@@ -6067,17 +6065,17 @@
       <c r="D140" s="7">
         <v>7223805976</v>
       </c>
-      <c r="E140" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F140" s="16"/>
+      <c r="E140" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" s="18"/>
       <c r="G140" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H140" s="15" t="s">
+      <c r="H140" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I140" s="16"/>
+      <c r="I140" s="18"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
@@ -6092,17 +6090,17 @@
       <c r="D141" s="7">
         <v>9926280831</v>
       </c>
-      <c r="E141" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F141" s="16"/>
+      <c r="E141" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" s="18"/>
       <c r="G141" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H141" s="15" t="s">
+      <c r="H141" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="I141" s="16"/>
+      <c r="I141" s="18"/>
     </row>
     <row r="142" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
@@ -6117,17 +6115,17 @@
       <c r="D142" s="7">
         <v>8103767722</v>
       </c>
-      <c r="E142" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F142" s="16"/>
+      <c r="E142" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" s="18"/>
       <c r="G142" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H142" s="15" t="s">
+      <c r="H142" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I142" s="16"/>
+      <c r="I142" s="18"/>
     </row>
     <row r="143" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
@@ -6142,17 +6140,17 @@
       <c r="D143" s="7">
         <v>9993542540</v>
       </c>
-      <c r="E143" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F143" s="16"/>
+      <c r="E143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" s="18"/>
       <c r="G143" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H143" s="15" t="s">
+      <c r="H143" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I143" s="16"/>
+      <c r="I143" s="18"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
@@ -6167,17 +6165,17 @@
       <c r="D144" s="7">
         <v>9691997292</v>
       </c>
-      <c r="E144" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F144" s="16"/>
+      <c r="E144" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F144" s="18"/>
       <c r="G144" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="15" t="s">
+      <c r="H144" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="I144" s="16"/>
+      <c r="I144" s="18"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
@@ -6192,17 +6190,17 @@
       <c r="D145" s="7">
         <v>9294788178</v>
       </c>
-      <c r="E145" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F145" s="16"/>
+      <c r="E145" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="18"/>
       <c r="G145" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H145" s="15" t="s">
+      <c r="H145" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I145" s="16"/>
+      <c r="I145" s="18"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
@@ -6217,17 +6215,17 @@
       <c r="D146" s="7">
         <v>9407131982</v>
       </c>
-      <c r="E146" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F146" s="16"/>
+      <c r="E146" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" s="18"/>
       <c r="G146" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H146" s="15" t="s">
+      <c r="H146" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I146" s="16"/>
+      <c r="I146" s="18"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
@@ -6242,17 +6240,17 @@
       <c r="D147" s="13">
         <v>9144212529</v>
       </c>
-      <c r="E147" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F147" s="18"/>
+      <c r="E147" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" s="20"/>
       <c r="G147" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H147" s="15" t="s">
+      <c r="H147" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="I147" s="16"/>
+      <c r="I147" s="18"/>
     </row>
     <row r="148" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
@@ -6267,17 +6265,17 @@
       <c r="D148" s="7">
         <v>9425442800</v>
       </c>
-      <c r="E148" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F148" s="16"/>
+      <c r="E148" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" s="18"/>
       <c r="G148" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H148" s="15" t="s">
+      <c r="H148" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="I148" s="16"/>
+      <c r="I148" s="18"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
@@ -6292,17 +6290,17 @@
       <c r="D149" s="7">
         <v>9630248593</v>
       </c>
-      <c r="E149" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F149" s="16"/>
+      <c r="E149" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="18"/>
       <c r="G149" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H149" s="15" t="s">
+      <c r="H149" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I149" s="16"/>
+      <c r="I149" s="18"/>
     </row>
     <row r="150" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
@@ -6317,17 +6315,17 @@
       <c r="D150" s="7">
         <v>7828017926</v>
       </c>
-      <c r="E150" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F150" s="16"/>
+      <c r="E150" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" s="18"/>
       <c r="G150" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H150" s="15" t="s">
+      <c r="H150" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I150" s="16"/>
+      <c r="I150" s="18"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
@@ -6342,17 +6340,17 @@
       <c r="D151" s="7">
         <v>9926266212</v>
       </c>
-      <c r="E151" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F151" s="16"/>
+      <c r="E151" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="18"/>
       <c r="G151" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H151" s="15" t="s">
+      <c r="H151" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I151" s="16"/>
+      <c r="I151" s="18"/>
     </row>
     <row r="152" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
@@ -6367,17 +6365,17 @@
       <c r="D152" s="7">
         <v>7974164996</v>
       </c>
-      <c r="E152" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F152" s="16"/>
+      <c r="E152" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" s="18"/>
       <c r="G152" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H152" s="15" t="s">
+      <c r="H152" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I152" s="16"/>
+      <c r="I152" s="18"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
@@ -6392,17 +6390,17 @@
       <c r="D153" s="7">
         <v>7879286783</v>
       </c>
-      <c r="E153" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F153" s="16"/>
+      <c r="E153" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" s="18"/>
       <c r="G153" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H153" s="15" t="s">
+      <c r="H153" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="I153" s="16"/>
+      <c r="I153" s="18"/>
     </row>
     <row r="154" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
@@ -6417,17 +6415,17 @@
       <c r="D154" s="7">
         <v>8982551063</v>
       </c>
-      <c r="E154" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F154" s="16"/>
+      <c r="E154" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" s="18"/>
       <c r="G154" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H154" s="15" t="s">
+      <c r="H154" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="I154" s="16"/>
+      <c r="I154" s="18"/>
     </row>
     <row r="155" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
@@ -6442,17 +6440,17 @@
       <c r="D155" s="7">
         <v>9407178406</v>
       </c>
-      <c r="E155" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F155" s="16"/>
+      <c r="E155" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" s="18"/>
       <c r="G155" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H155" s="15" t="s">
+      <c r="H155" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I155" s="16"/>
+      <c r="I155" s="18"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
@@ -6467,17 +6465,17 @@
       <c r="D156" s="7">
         <v>8989422414</v>
       </c>
-      <c r="E156" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F156" s="16"/>
+      <c r="E156" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" s="18"/>
       <c r="G156" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H156" s="15" t="s">
+      <c r="H156" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I156" s="16"/>
+      <c r="I156" s="18"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
@@ -6492,17 +6490,17 @@
       <c r="D157" s="7">
         <v>9691671913</v>
       </c>
-      <c r="E157" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F157" s="16"/>
+      <c r="E157" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" s="18"/>
       <c r="G157" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H157" s="15" t="s">
+      <c r="H157" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I157" s="16"/>
+      <c r="I157" s="18"/>
     </row>
     <row r="158" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
@@ -6517,17 +6515,17 @@
       <c r="D158" s="7">
         <v>9893544359</v>
       </c>
-      <c r="E158" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F158" s="16"/>
+      <c r="E158" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" s="18"/>
       <c r="G158" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H158" s="15" t="s">
+      <c r="H158" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I158" s="16"/>
+      <c r="I158" s="18"/>
     </row>
     <row r="159" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
@@ -6542,17 +6540,17 @@
       <c r="D159" s="7">
         <v>8989902843</v>
       </c>
-      <c r="E159" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F159" s="16"/>
+      <c r="E159" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" s="18"/>
       <c r="G159" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H159" s="15" t="s">
+      <c r="H159" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="I159" s="16"/>
+      <c r="I159" s="18"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
@@ -6567,17 +6565,17 @@
       <c r="D160" s="7">
         <v>8236059960</v>
       </c>
-      <c r="E160" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F160" s="16"/>
+      <c r="E160" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" s="18"/>
       <c r="G160" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H160" s="15" t="s">
+      <c r="H160" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I160" s="16"/>
+      <c r="I160" s="18"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
@@ -6592,17 +6590,17 @@
       <c r="D161" s="7">
         <v>7509900244</v>
       </c>
-      <c r="E161" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="16"/>
+      <c r="E161" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" s="18"/>
       <c r="G161" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H161" s="15" t="s">
+      <c r="H161" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I161" s="16"/>
+      <c r="I161" s="18"/>
     </row>
     <row r="162" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
@@ -6617,17 +6615,17 @@
       <c r="D162" s="7">
         <v>9806115350</v>
       </c>
-      <c r="E162" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F162" s="16"/>
+      <c r="E162" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="18"/>
       <c r="G162" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H162" s="15" t="s">
+      <c r="H162" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="I162" s="16"/>
+      <c r="I162" s="18"/>
     </row>
     <row r="163" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
@@ -6642,17 +6640,17 @@
       <c r="D163" s="7">
         <v>8878352998</v>
       </c>
-      <c r="E163" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F163" s="16"/>
+      <c r="E163" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" s="18"/>
       <c r="G163" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H163" s="15" t="s">
+      <c r="H163" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I163" s="16"/>
+      <c r="I163" s="18"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
@@ -6667,17 +6665,17 @@
       <c r="D164" s="7">
         <v>8982819384</v>
       </c>
-      <c r="E164" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F164" s="16"/>
+      <c r="E164" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F164" s="18"/>
       <c r="G164" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H164" s="15" t="s">
+      <c r="H164" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I164" s="16"/>
+      <c r="I164" s="18"/>
     </row>
     <row r="165" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
@@ -6692,17 +6690,17 @@
       <c r="D165" s="7">
         <v>9009540910</v>
       </c>
-      <c r="E165" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F165" s="16"/>
+      <c r="E165" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" s="18"/>
       <c r="G165" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H165" s="15" t="s">
+      <c r="H165" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I165" s="16"/>
+      <c r="I165" s="18"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
@@ -6717,17 +6715,17 @@
       <c r="D166" s="7">
         <v>9575862482</v>
       </c>
-      <c r="E166" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F166" s="16"/>
+      <c r="E166" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F166" s="18"/>
       <c r="G166" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H166" s="15" t="s">
+      <c r="H166" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="I166" s="16"/>
+      <c r="I166" s="18"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
@@ -6742,17 +6740,17 @@
       <c r="D167" s="7">
         <v>9993015144</v>
       </c>
-      <c r="E167" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F167" s="16"/>
+      <c r="E167" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" s="18"/>
       <c r="G167" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H167" s="15" t="s">
+      <c r="H167" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I167" s="16"/>
+      <c r="I167" s="18"/>
     </row>
     <row r="168" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
@@ -6767,17 +6765,17 @@
       <c r="D168" s="7">
         <v>9685853964</v>
       </c>
-      <c r="E168" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F168" s="16"/>
+      <c r="E168" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F168" s="18"/>
       <c r="G168" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H168" s="15" t="s">
+      <c r="H168" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="I168" s="16"/>
+      <c r="I168" s="18"/>
     </row>
     <row r="169" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
@@ -6792,17 +6790,17 @@
       <c r="D169" s="7">
         <v>8871309028</v>
       </c>
-      <c r="E169" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F169" s="16"/>
+      <c r="E169" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" s="18"/>
       <c r="G169" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H169" s="15" t="s">
+      <c r="H169" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I169" s="16"/>
+      <c r="I169" s="18"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
@@ -6817,17 +6815,17 @@
       <c r="D170" s="7">
         <v>9406615795</v>
       </c>
-      <c r="E170" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F170" s="16"/>
+      <c r="E170" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170" s="18"/>
       <c r="G170" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="15" t="s">
+      <c r="H170" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="I170" s="16"/>
+      <c r="I170" s="18"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
@@ -6842,17 +6840,17 @@
       <c r="D171" s="7">
         <v>8989883833</v>
       </c>
-      <c r="E171" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F171" s="16"/>
+      <c r="E171" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" s="18"/>
       <c r="G171" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H171" s="15" t="s">
+      <c r="H171" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I171" s="16"/>
+      <c r="I171" s="18"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
@@ -6867,17 +6865,17 @@
       <c r="D172" s="7">
         <v>7049613592</v>
       </c>
-      <c r="E172" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F172" s="16"/>
+      <c r="E172" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="18"/>
       <c r="G172" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H172" s="15" t="s">
+      <c r="H172" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I172" s="16"/>
+      <c r="I172" s="18"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
@@ -6892,17 +6890,17 @@
       <c r="D173" s="7">
         <v>8982850016</v>
       </c>
-      <c r="E173" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F173" s="16"/>
+      <c r="E173" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" s="18"/>
       <c r="G173" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H173" s="15" t="s">
+      <c r="H173" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I173" s="16"/>
+      <c r="I173" s="18"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
@@ -6917,17 +6915,17 @@
       <c r="D174" s="7">
         <v>8823000581</v>
       </c>
-      <c r="E174" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F174" s="16"/>
+      <c r="E174" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" s="18"/>
       <c r="G174" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H174" s="15" t="s">
+      <c r="H174" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I174" s="16"/>
+      <c r="I174" s="18"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -6942,17 +6940,17 @@
       <c r="D175" s="7">
         <v>9179370289</v>
       </c>
-      <c r="E175" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F175" s="16"/>
+      <c r="E175" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F175" s="18"/>
       <c r="G175" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H175" s="15" t="s">
+      <c r="H175" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I175" s="16"/>
+      <c r="I175" s="18"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -6967,17 +6965,17 @@
       <c r="D176" s="7">
         <v>9406800960</v>
       </c>
-      <c r="E176" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F176" s="16"/>
+      <c r="E176" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F176" s="18"/>
       <c r="G176" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H176" s="15" t="s">
+      <c r="H176" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="I176" s="16"/>
+      <c r="I176" s="18"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -6992,17 +6990,17 @@
       <c r="D177" s="7">
         <v>9691778014</v>
       </c>
-      <c r="E177" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F177" s="16"/>
+      <c r="E177" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F177" s="18"/>
       <c r="G177" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H177" s="15" t="s">
+      <c r="H177" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I177" s="16"/>
+      <c r="I177" s="18"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
@@ -7017,17 +7015,17 @@
       <c r="D178" s="7">
         <v>9179064316</v>
       </c>
-      <c r="E178" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F178" s="16"/>
+      <c r="E178" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178" s="18"/>
       <c r="G178" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H178" s="15" t="s">
+      <c r="H178" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I178" s="16"/>
+      <c r="I178" s="18"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
@@ -7042,17 +7040,17 @@
       <c r="D179" s="7">
         <v>9993376743</v>
       </c>
-      <c r="E179" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F179" s="16"/>
+      <c r="E179" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F179" s="18"/>
       <c r="G179" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H179" s="15" t="s">
+      <c r="H179" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I179" s="16"/>
+      <c r="I179" s="18"/>
     </row>
     <row r="180" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
@@ -7067,17 +7065,17 @@
       <c r="D180" s="7">
         <v>9406843100</v>
       </c>
-      <c r="E180" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F180" s="16"/>
+      <c r="E180" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F180" s="18"/>
       <c r="G180" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H180" s="15" t="s">
+      <c r="H180" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I180" s="16"/>
+      <c r="I180" s="18"/>
     </row>
     <row r="181" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -7092,17 +7090,17 @@
       <c r="D181" s="7">
         <v>9424028237</v>
       </c>
-      <c r="E181" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F181" s="16"/>
+      <c r="E181" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F181" s="18"/>
       <c r="G181" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="15" t="s">
+      <c r="H181" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="I181" s="16"/>
+      <c r="I181" s="18"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
@@ -7117,17 +7115,17 @@
       <c r="D182" s="7">
         <v>8963975526</v>
       </c>
-      <c r="E182" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F182" s="16"/>
+      <c r="E182" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F182" s="18"/>
       <c r="G182" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H182" s="15" t="s">
+      <c r="H182" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I182" s="16"/>
+      <c r="I182" s="18"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -7142,17 +7140,17 @@
       <c r="D183" s="7">
         <v>8878397568</v>
       </c>
-      <c r="E183" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F183" s="16"/>
+      <c r="E183" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F183" s="18"/>
       <c r="G183" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H183" s="15" t="s">
+      <c r="H183" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I183" s="16"/>
+      <c r="I183" s="18"/>
     </row>
     <row r="184" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
@@ -7167,17 +7165,17 @@
       <c r="D184" s="7">
         <v>7697386985</v>
       </c>
-      <c r="E184" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F184" s="16"/>
+      <c r="E184" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" s="18"/>
       <c r="G184" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H184" s="15" t="s">
+      <c r="H184" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I184" s="16"/>
+      <c r="I184" s="18"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
@@ -7192,17 +7190,17 @@
       <c r="D185" s="7">
         <v>9009073634</v>
       </c>
-      <c r="E185" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F185" s="16"/>
+      <c r="E185" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F185" s="18"/>
       <c r="G185" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H185" s="15" t="s">
+      <c r="H185" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I185" s="16"/>
+      <c r="I185" s="18"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
@@ -7217,17 +7215,17 @@
       <c r="D186" s="7">
         <v>9165549522</v>
       </c>
-      <c r="E186" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F186" s="16"/>
+      <c r="E186" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F186" s="18"/>
       <c r="G186" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H186" s="15" t="s">
+      <c r="H186" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="I186" s="16"/>
+      <c r="I186" s="18"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
@@ -7242,17 +7240,17 @@
       <c r="D187" s="13">
         <v>9584567497</v>
       </c>
-      <c r="E187" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F187" s="18"/>
+      <c r="E187" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F187" s="20"/>
       <c r="G187" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H187" s="15" t="s">
+      <c r="H187" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="I187" s="16"/>
+      <c r="I187" s="18"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -7267,17 +7265,17 @@
       <c r="D188" s="7">
         <v>9098706508</v>
       </c>
-      <c r="E188" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F188" s="16"/>
+      <c r="E188" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F188" s="18"/>
       <c r="G188" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H188" s="15" t="s">
+      <c r="H188" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I188" s="16"/>
+      <c r="I188" s="18"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
@@ -7292,17 +7290,17 @@
       <c r="D189" s="7">
         <v>7898434435</v>
       </c>
-      <c r="E189" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F189" s="16"/>
+      <c r="E189" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F189" s="18"/>
       <c r="G189" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H189" s="15" t="s">
+      <c r="H189" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I189" s="16"/>
+      <c r="I189" s="18"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
@@ -7315,17 +7313,17 @@
         <v>525</v>
       </c>
       <c r="D190" s="14"/>
-      <c r="E190" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F190" s="16"/>
+      <c r="E190" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" s="18"/>
       <c r="G190" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H190" s="15" t="s">
+      <c r="H190" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I190" s="16"/>
+      <c r="I190" s="18"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
@@ -7340,17 +7338,17 @@
       <c r="D191" s="7">
         <v>9406583660</v>
       </c>
-      <c r="E191" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F191" s="16"/>
+      <c r="E191" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F191" s="18"/>
       <c r="G191" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H191" s="15" t="s">
+      <c r="H191" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I191" s="16"/>
+      <c r="I191" s="18"/>
     </row>
     <row r="192" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
@@ -7365,17 +7363,17 @@
       <c r="D192" s="7">
         <v>8962744549</v>
       </c>
-      <c r="E192" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F192" s="16"/>
+      <c r="E192" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F192" s="18"/>
       <c r="G192" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H192" s="15" t="s">
+      <c r="H192" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="I192" s="16"/>
+      <c r="I192" s="18"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
@@ -7390,17 +7388,17 @@
       <c r="D193" s="7">
         <v>8358848988</v>
       </c>
-      <c r="E193" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F193" s="16"/>
+      <c r="E193" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F193" s="18"/>
       <c r="G193" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="H193" s="15" t="s">
+      <c r="H193" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="I193" s="16"/>
+      <c r="I193" s="18"/>
     </row>
     <row r="194" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
@@ -7415,17 +7413,17 @@
       <c r="D194" s="7">
         <v>9754540910</v>
       </c>
-      <c r="E194" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F194" s="16"/>
+      <c r="E194" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F194" s="18"/>
       <c r="G194" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H194" s="15" t="s">
+      <c r="H194" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I194" s="16"/>
+      <c r="I194" s="18"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
@@ -7440,17 +7438,17 @@
       <c r="D195" s="7">
         <v>9584387103</v>
       </c>
-      <c r="E195" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F195" s="16"/>
+      <c r="E195" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F195" s="18"/>
       <c r="G195" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H195" s="15" t="s">
+      <c r="H195" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I195" s="16"/>
+      <c r="I195" s="18"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
@@ -7465,17 +7463,17 @@
       <c r="D196" s="7">
         <v>8871002969</v>
       </c>
-      <c r="E196" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F196" s="16"/>
+      <c r="E196" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196" s="18"/>
       <c r="G196" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H196" s="15" t="s">
+      <c r="H196" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I196" s="16"/>
+      <c r="I196" s="18"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
@@ -7490,17 +7488,17 @@
       <c r="D197" s="7">
         <v>7415873332</v>
       </c>
-      <c r="E197" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F197" s="16"/>
+      <c r="E197" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F197" s="18"/>
       <c r="G197" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H197" s="15" t="s">
+      <c r="H197" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I197" s="16"/>
+      <c r="I197" s="18"/>
     </row>
     <row r="198" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
@@ -7515,17 +7513,17 @@
       <c r="D198" s="7">
         <v>7241125211</v>
       </c>
-      <c r="E198" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F198" s="16"/>
+      <c r="E198" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F198" s="18"/>
       <c r="G198" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H198" s="15" t="s">
+      <c r="H198" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I198" s="16"/>
+      <c r="I198" s="18"/>
     </row>
     <row r="199" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
@@ -7540,17 +7538,17 @@
       <c r="D199" s="7">
         <v>7869624511</v>
       </c>
-      <c r="E199" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F199" s="16"/>
+      <c r="E199" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" s="18"/>
       <c r="G199" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H199" s="15" t="s">
+      <c r="H199" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I199" s="16"/>
+      <c r="I199" s="18"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
@@ -7565,17 +7563,17 @@
       <c r="D200" s="7">
         <v>8989164540</v>
       </c>
-      <c r="E200" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F200" s="16"/>
+      <c r="E200" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" s="18"/>
       <c r="G200" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H200" s="15" t="s">
+      <c r="H200" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I200" s="16"/>
+      <c r="I200" s="18"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
@@ -7590,17 +7588,17 @@
       <c r="D201" s="13">
         <v>8518835865</v>
       </c>
-      <c r="E201" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F201" s="18"/>
+      <c r="E201" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F201" s="20"/>
       <c r="G201" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H201" s="17" t="s">
+      <c r="H201" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="I201" s="18"/>
+      <c r="I201" s="20"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
@@ -7615,17 +7613,17 @@
       <c r="D202" s="7">
         <v>9926450027</v>
       </c>
-      <c r="E202" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F202" s="16"/>
+      <c r="E202" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F202" s="18"/>
       <c r="G202" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H202" s="15" t="s">
+      <c r="H202" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="I202" s="16"/>
+      <c r="I202" s="18"/>
     </row>
     <row r="203" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
@@ -7640,17 +7638,17 @@
       <c r="D203" s="7">
         <v>9589547757</v>
       </c>
-      <c r="E203" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F203" s="16"/>
+      <c r="E203" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F203" s="18"/>
       <c r="G203" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H203" s="15" t="s">
+      <c r="H203" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I203" s="16"/>
+      <c r="I203" s="18"/>
     </row>
     <row r="204" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
@@ -7665,17 +7663,17 @@
       <c r="D204" s="7">
         <v>9406869982</v>
       </c>
-      <c r="E204" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F204" s="16"/>
+      <c r="E204" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F204" s="18"/>
       <c r="G204" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H204" s="15" t="s">
+      <c r="H204" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I204" s="16"/>
+      <c r="I204" s="18"/>
     </row>
     <row r="205" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
@@ -7690,17 +7688,17 @@
       <c r="D205" s="13">
         <v>8889043042</v>
       </c>
-      <c r="E205" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F205" s="18"/>
+      <c r="E205" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F205" s="20"/>
       <c r="G205" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H205" s="15" t="s">
+      <c r="H205" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="I205" s="16"/>
+      <c r="I205" s="18"/>
     </row>
     <row r="206" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
@@ -7715,17 +7713,17 @@
       <c r="D206" s="7">
         <v>9753340764</v>
       </c>
-      <c r="E206" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F206" s="16"/>
+      <c r="E206" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F206" s="18"/>
       <c r="G206" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H206" s="15" t="s">
+      <c r="H206" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I206" s="16"/>
+      <c r="I206" s="18"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
@@ -7740,17 +7738,17 @@
       <c r="D207" s="7">
         <v>9009187997</v>
       </c>
-      <c r="E207" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F207" s="16"/>
+      <c r="E207" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F207" s="18"/>
       <c r="G207" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H207" s="15" t="s">
+      <c r="H207" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I207" s="16"/>
+      <c r="I207" s="18"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
@@ -7765,17 +7763,17 @@
       <c r="D208" s="7">
         <v>8319391282</v>
       </c>
-      <c r="E208" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F208" s="16"/>
+      <c r="E208" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F208" s="18"/>
       <c r="G208" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H208" s="15" t="s">
+      <c r="H208" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I208" s="16"/>
+      <c r="I208" s="18"/>
     </row>
     <row r="209" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
@@ -7790,17 +7788,17 @@
       <c r="D209" s="7">
         <v>9584971272</v>
       </c>
-      <c r="E209" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F209" s="16"/>
+      <c r="E209" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F209" s="18"/>
       <c r="G209" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H209" s="15" t="s">
+      <c r="H209" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I209" s="16"/>
+      <c r="I209" s="18"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -7815,17 +7813,17 @@
       <c r="D210" s="7">
         <v>9691505132</v>
       </c>
-      <c r="E210" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F210" s="16"/>
+      <c r="E210" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F210" s="18"/>
       <c r="G210" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H210" s="15" t="s">
+      <c r="H210" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I210" s="16"/>
+      <c r="I210" s="18"/>
     </row>
     <row r="211" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
@@ -7840,17 +7838,17 @@
       <c r="D211" s="7">
         <v>8103214856</v>
       </c>
-      <c r="E211" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F211" s="16"/>
+      <c r="E211" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F211" s="18"/>
       <c r="G211" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H211" s="15" t="s">
+      <c r="H211" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I211" s="16"/>
+      <c r="I211" s="18"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
@@ -7865,17 +7863,17 @@
       <c r="D212" s="7">
         <v>9617633897</v>
       </c>
-      <c r="E212" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F212" s="16"/>
+      <c r="E212" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F212" s="18"/>
       <c r="G212" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H212" s="15" t="s">
+      <c r="H212" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I212" s="16"/>
+      <c r="I212" s="18"/>
     </row>
     <row r="213" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
@@ -7890,17 +7888,17 @@
       <c r="D213" s="7">
         <v>7049612955</v>
       </c>
-      <c r="E213" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F213" s="16"/>
+      <c r="E213" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F213" s="18"/>
       <c r="G213" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H213" s="15" t="s">
+      <c r="H213" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I213" s="16"/>
+      <c r="I213" s="18"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
@@ -7915,17 +7913,17 @@
       <c r="D214" s="7">
         <v>7049612955</v>
       </c>
-      <c r="E214" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F214" s="16"/>
+      <c r="E214" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F214" s="18"/>
       <c r="G214" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H214" s="15" t="s">
+      <c r="H214" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I214" s="16"/>
+      <c r="I214" s="18"/>
     </row>
     <row r="215" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
@@ -7940,17 +7938,17 @@
       <c r="D215" s="7">
         <v>7024551908</v>
       </c>
-      <c r="E215" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F215" s="16"/>
+      <c r="E215" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F215" s="18"/>
       <c r="G215" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="H215" s="15" t="s">
+      <c r="H215" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="I215" s="16"/>
+      <c r="I215" s="18"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
@@ -7965,17 +7963,17 @@
       <c r="D216" s="7">
         <v>8236050118</v>
       </c>
-      <c r="E216" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F216" s="16"/>
+      <c r="E216" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F216" s="18"/>
       <c r="G216" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H216" s="15" t="s">
+      <c r="H216" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I216" s="16"/>
+      <c r="I216" s="18"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
@@ -7990,17 +7988,17 @@
       <c r="D217" s="7">
         <v>7898703698</v>
       </c>
-      <c r="E217" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F217" s="16"/>
+      <c r="E217" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F217" s="18"/>
       <c r="G217" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H217" s="15" t="s">
+      <c r="H217" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="I217" s="16"/>
+      <c r="I217" s="18"/>
     </row>
     <row r="218" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
@@ -8015,17 +8013,17 @@
       <c r="D218" s="7">
         <v>7828589305</v>
       </c>
-      <c r="E218" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F218" s="16"/>
+      <c r="E218" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F218" s="18"/>
       <c r="G218" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H218" s="15" t="s">
+      <c r="H218" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="I218" s="16"/>
+      <c r="I218" s="18"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
@@ -8040,17 +8038,17 @@
       <c r="D219" s="7">
         <v>9479888940</v>
       </c>
-      <c r="E219" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F219" s="16"/>
+      <c r="E219" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F219" s="18"/>
       <c r="G219" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H219" s="15" t="s">
+      <c r="H219" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="I219" s="16"/>
+      <c r="I219" s="18"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
@@ -8065,17 +8063,17 @@
       <c r="D220" s="7">
         <v>7879691307</v>
       </c>
-      <c r="E220" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F220" s="16"/>
+      <c r="E220" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F220" s="18"/>
       <c r="G220" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H220" s="15" t="s">
+      <c r="H220" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I220" s="16"/>
+      <c r="I220" s="18"/>
     </row>
     <row r="221" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
@@ -8090,17 +8088,17 @@
       <c r="D221" s="7">
         <v>9165119753</v>
       </c>
-      <c r="E221" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F221" s="16"/>
+      <c r="E221" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F221" s="18"/>
       <c r="G221" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H221" s="15" t="s">
+      <c r="H221" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I221" s="16"/>
+      <c r="I221" s="18"/>
     </row>
     <row r="222" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
@@ -8115,17 +8113,17 @@
       <c r="D222" s="7">
         <v>8871148091</v>
       </c>
-      <c r="E222" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F222" s="16"/>
+      <c r="E222" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F222" s="18"/>
       <c r="G222" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H222" s="15" t="s">
+      <c r="H222" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="I222" s="16"/>
+      <c r="I222" s="18"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
@@ -8140,17 +8138,17 @@
       <c r="D223" s="7">
         <v>8966939317</v>
       </c>
-      <c r="E223" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F223" s="16"/>
+      <c r="E223" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F223" s="18"/>
       <c r="G223" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H223" s="15" t="s">
+      <c r="H223" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I223" s="16"/>
+      <c r="I223" s="18"/>
     </row>
     <row r="224" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
@@ -8165,17 +8163,17 @@
       <c r="D224" s="7">
         <v>7746010980</v>
       </c>
-      <c r="E224" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F224" s="16"/>
+      <c r="E224" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F224" s="18"/>
       <c r="G224" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H224" s="15" t="s">
+      <c r="H224" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="I224" s="16"/>
+      <c r="I224" s="18"/>
     </row>
     <row r="225" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
@@ -8190,17 +8188,17 @@
       <c r="D225" s="7">
         <v>9993185423</v>
       </c>
-      <c r="E225" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F225" s="16"/>
+      <c r="E225" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F225" s="18"/>
       <c r="G225" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H225" s="15" t="s">
+      <c r="H225" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="I225" s="16"/>
+      <c r="I225" s="18"/>
     </row>
     <row r="226" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
@@ -8215,17 +8213,17 @@
       <c r="D226" s="7">
         <v>7869360392</v>
       </c>
-      <c r="E226" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F226" s="16"/>
+      <c r="E226" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F226" s="18"/>
       <c r="G226" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H226" s="15" t="s">
+      <c r="H226" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="I226" s="16"/>
+      <c r="I226" s="18"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
@@ -8240,17 +8238,17 @@
       <c r="D227" s="7">
         <v>9713639615</v>
       </c>
-      <c r="E227" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F227" s="16"/>
+      <c r="E227" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F227" s="18"/>
       <c r="G227" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H227" s="15" t="s">
+      <c r="H227" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I227" s="16"/>
+      <c r="I227" s="18"/>
     </row>
     <row r="228" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
@@ -8265,17 +8263,17 @@
       <c r="D228" s="7">
         <v>9907738977</v>
       </c>
-      <c r="E228" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F228" s="16"/>
+      <c r="E228" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F228" s="18"/>
       <c r="G228" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H228" s="15" t="s">
+      <c r="H228" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="I228" s="16"/>
+      <c r="I228" s="18"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
@@ -8290,17 +8288,17 @@
       <c r="D229" s="7">
         <v>8770988098</v>
       </c>
-      <c r="E229" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F229" s="16"/>
+      <c r="E229" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F229" s="18"/>
       <c r="G229" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H229" s="15" t="s">
+      <c r="H229" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I229" s="16"/>
+      <c r="I229" s="18"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
@@ -8315,17 +8313,17 @@
       <c r="D230" s="7">
         <v>7898640474</v>
       </c>
-      <c r="E230" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F230" s="16"/>
+      <c r="E230" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F230" s="18"/>
       <c r="G230" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H230" s="15" t="s">
+      <c r="H230" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I230" s="16"/>
+      <c r="I230" s="18"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
@@ -8340,17 +8338,17 @@
       <c r="D231" s="7">
         <v>9165750446</v>
       </c>
-      <c r="E231" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F231" s="16"/>
+      <c r="E231" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F231" s="18"/>
       <c r="G231" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H231" s="15" t="s">
+      <c r="H231" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="I231" s="16"/>
+      <c r="I231" s="18"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
@@ -8365,17 +8363,17 @@
       <c r="D232" s="7">
         <v>9424818538</v>
       </c>
-      <c r="E232" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F232" s="16"/>
+      <c r="E232" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F232" s="18"/>
       <c r="G232" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H232" s="15" t="s">
+      <c r="H232" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="I232" s="16"/>
+      <c r="I232" s="18"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
@@ -8388,17 +8386,17 @@
       <c r="D233" s="7">
         <v>7898974115</v>
       </c>
-      <c r="E233" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F233" s="16"/>
+      <c r="E233" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F233" s="18"/>
       <c r="G233" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H233" s="15" t="s">
+      <c r="H233" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="I233" s="16"/>
+      <c r="I233" s="18"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
@@ -8413,17 +8411,17 @@
       <c r="D234" s="7">
         <v>8349645409</v>
       </c>
-      <c r="E234" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F234" s="16"/>
+      <c r="E234" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F234" s="18"/>
       <c r="G234" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H234" s="15" t="s">
+      <c r="H234" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="I234" s="16"/>
+      <c r="I234" s="18"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
@@ -8438,20 +8436,474 @@
       <c r="D235" s="7">
         <v>8819944034</v>
       </c>
-      <c r="E235" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F235" s="16"/>
+      <c r="E235" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F235" s="18"/>
       <c r="G235" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H235" s="15" t="s">
+      <c r="H235" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="I235" s="16"/>
+      <c r="I235" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="470">
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="E2:F2"/>
@@ -8468,460 +8920,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="E222:F222"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="mailto:aniljvyas@gmail.com"/>

--- a/Excel/BTECH_IT.xlsx
+++ b/Excel/BTECH_IT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="639">
   <si>
     <t>India</t>
   </si>
@@ -2028,6 +2028,9 @@
       <t>Diksha Jain</t>
     </r>
   </si>
+  <si>
+    <t>Yash@gmail.com</t>
+  </si>
 </sst>
 </file>
 
@@ -2037,7 +2040,7 @@
     <numFmt numFmtId="164" formatCode="###0;###0"/>
     <numFmt numFmtId="165" formatCode="###00000000000;###00000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2080,6 +2083,14 @@
       <color rgb="FF9A0004"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2217,10 +2228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2262,12 +2274,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2280,8 +2286,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2562,7 +2578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2590,17 +2608,17 @@
       <c r="D1" s="4">
         <v>8109106899</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="16"/>
+      <c r="E1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="20"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2615,17 +2633,17 @@
       <c r="D2" s="7">
         <v>7045179339</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18"/>
+      <c r="E2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16"/>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2640,17 +2658,17 @@
       <c r="D3" s="7">
         <v>9397647551</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18"/>
+      <c r="E3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16"/>
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2665,17 +2683,17 @@
       <c r="D4" s="7">
         <v>9755541186</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18"/>
+      <c r="E4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2690,17 +2708,17 @@
       <c r="D5" s="7">
         <v>9685096714</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18"/>
+      <c r="E5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
       <c r="G5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2715,17 +2733,17 @@
       <c r="D6" s="7">
         <v>9867318827</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18"/>
+      <c r="E6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -2740,17 +2758,17 @@
       <c r="D7" s="7">
         <v>9993070605</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18"/>
+      <c r="E7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -2765,17 +2783,17 @@
       <c r="D8" s="7">
         <v>8105643681</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2790,17 +2808,17 @@
       <c r="D9" s="7">
         <v>8989819748</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18"/>
+      <c r="E9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2815,17 +2833,17 @@
       <c r="D10" s="7">
         <v>9826233312</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18"/>
+      <c r="E10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2840,17 +2858,17 @@
       <c r="D11" s="7">
         <v>7999995230</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="E11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2865,17 +2883,17 @@
       <c r="D12" s="7">
         <v>9827084220</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18"/>
+      <c r="E12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16"/>
       <c r="G12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -2890,17 +2908,17 @@
       <c r="D13" s="7">
         <v>9611885588</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18"/>
+      <c r="E13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2915,17 +2933,17 @@
       <c r="D14" s="7">
         <v>9595734646</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18"/>
+      <c r="E14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2940,17 +2958,17 @@
       <c r="D15" s="7">
         <v>7795829396</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18"/>
+      <c r="E15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16"/>
       <c r="G15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2965,17 +2983,17 @@
       <c r="D16" s="7">
         <v>9826826826</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18"/>
+      <c r="E16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16"/>
       <c r="G16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -2990,17 +3008,17 @@
       <c r="D17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3015,17 +3033,17 @@
       <c r="D18" s="7">
         <v>7828751725</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18"/>
+      <c r="E18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="18"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -3040,17 +3058,17 @@
       <c r="D19" s="7">
         <v>7387005353</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18"/>
+      <c r="E19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="18"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3065,17 +3083,17 @@
       <c r="D20" s="7">
         <v>9425531803</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="E20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16"/>
       <c r="G20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -3090,17 +3108,17 @@
       <c r="D21" s="7">
         <v>7987459132</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18"/>
+      <c r="E21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16"/>
       <c r="G21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3115,17 +3133,17 @@
       <c r="D22" s="7">
         <v>6585393855</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3140,17 +3158,17 @@
       <c r="D23" s="7">
         <v>9424891440</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18"/>
+      <c r="E23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16"/>
       <c r="G23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -3165,17 +3183,17 @@
       <c r="D24" s="7">
         <v>8447816350</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18"/>
+      <c r="E24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16"/>
       <c r="G24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -3190,17 +3208,17 @@
       <c r="D25" s="7">
         <v>9425407588</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18"/>
+      <c r="E25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16"/>
       <c r="G25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -3215,17 +3233,17 @@
       <c r="D26" s="7">
         <v>6024817828</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -3240,17 +3258,17 @@
       <c r="D27" s="7">
         <v>8123389527</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="E27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16"/>
       <c r="G27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -3265,17 +3283,17 @@
       <c r="D28" s="7">
         <v>8585901719</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18"/>
+      <c r="E28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -3290,17 +3308,17 @@
       <c r="D29" s="7">
         <v>7042455915</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18"/>
+      <c r="E29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16"/>
       <c r="G29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3315,17 +3333,17 @@
       <c r="D30" s="7">
         <v>9555562191</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18"/>
+      <c r="E30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16"/>
       <c r="G30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3340,17 +3358,17 @@
       <c r="D31" s="7">
         <v>8806870483</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18"/>
+      <c r="E31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16"/>
       <c r="G31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3365,17 +3383,17 @@
       <c r="D32" s="7">
         <v>8011033155</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="18"/>
+      <c r="E32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16"/>
       <c r="G32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3390,17 +3408,17 @@
       <c r="D33" s="7">
         <v>9971797743</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="18"/>
+      <c r="E33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16"/>
       <c r="G33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -3415,17 +3433,17 @@
       <c r="D34" s="7">
         <v>8805070079</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18"/>
+      <c r="E34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16"/>
       <c r="G34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="I34" s="18"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -3440,17 +3458,17 @@
       <c r="D35" s="7">
         <v>9755097730</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18"/>
+      <c r="E35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16"/>
       <c r="G35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="18"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -3465,17 +3483,17 @@
       <c r="D36" s="7">
         <v>7828077572</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="18"/>
+      <c r="E36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16"/>
       <c r="G36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I36" s="18"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -3490,17 +3508,17 @@
       <c r="D37" s="7">
         <v>8225905616</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18"/>
+      <c r="E37" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16"/>
       <c r="G37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -3515,17 +3533,17 @@
       <c r="D38" s="7">
         <v>9705948145</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18"/>
+      <c r="E38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16"/>
       <c r="G38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I38" s="18"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -3540,17 +3558,17 @@
       <c r="D39" s="7">
         <v>9822163925</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18"/>
+      <c r="E39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16"/>
       <c r="G39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="I39" s="18"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -3565,17 +3583,17 @@
       <c r="D40" s="7">
         <v>9993363304</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="18"/>
+      <c r="E40" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16"/>
       <c r="G40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="18"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -3590,17 +3608,17 @@
       <c r="D41" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I41" s="18"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -3615,17 +3633,17 @@
       <c r="D42" s="7">
         <v>9826900441</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18"/>
+      <c r="E42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16"/>
       <c r="G42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -3640,17 +3658,17 @@
       <c r="D43" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="18"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -3665,17 +3683,17 @@
       <c r="D44" s="7">
         <v>8989499842</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="18"/>
+      <c r="E44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16"/>
       <c r="G44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="18"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -3690,17 +3708,17 @@
       <c r="D45" s="7">
         <v>8989733255</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="18"/>
+      <c r="E45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16"/>
       <c r="G45" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="I45" s="18"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -3715,17 +3733,17 @@
       <c r="D46" s="7">
         <v>9406619236</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="18"/>
+      <c r="E46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16"/>
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I46" s="18"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -3740,17 +3758,17 @@
       <c r="D47" s="7">
         <v>9755101234</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18"/>
+      <c r="E47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16"/>
       <c r="G47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="18"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -3765,17 +3783,17 @@
       <c r="D48" s="7">
         <v>9907861001</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="18"/>
+      <c r="E48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16"/>
       <c r="G48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I48" s="18"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -3790,17 +3808,17 @@
       <c r="D49" s="7">
         <v>7827252475</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" s="18"/>
+      <c r="E49" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16"/>
       <c r="G49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I49" s="18"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -3815,17 +3833,17 @@
       <c r="D50" s="7">
         <v>8828013030</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="18"/>
+      <c r="E50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16"/>
       <c r="G50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="18"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -3840,17 +3858,17 @@
       <c r="D51" s="7">
         <v>8878990880</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18"/>
+      <c r="E51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16"/>
       <c r="G51" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="H51" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="I51" s="18"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -3865,17 +3883,17 @@
       <c r="D52" s="7">
         <v>7887625925</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="18"/>
+      <c r="E52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16"/>
       <c r="G52" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="I52" s="18"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -3890,17 +3908,17 @@
       <c r="D53" s="7">
         <v>8602138675</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="18"/>
+      <c r="E53" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16"/>
       <c r="G53" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H53" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="I53" s="18"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -3915,17 +3933,17 @@
       <c r="D54" s="7">
         <v>7869060848</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="18"/>
+      <c r="E54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16"/>
       <c r="G54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="H54" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I54" s="18"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
@@ -3940,17 +3958,17 @@
       <c r="D55" s="7">
         <v>8095854077</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="18"/>
+      <c r="E55" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16"/>
       <c r="G55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="17" t="s">
+      <c r="H55" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I55" s="18"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -3965,17 +3983,17 @@
       <c r="D56" s="7">
         <v>9098568668</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56" s="18"/>
+      <c r="E56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16"/>
       <c r="G56" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="H56" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I56" s="18"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -3990,17 +4008,17 @@
       <c r="D57" s="7">
         <v>8817407183</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="18"/>
+      <c r="E57" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16"/>
       <c r="G57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="I57" s="18"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -4015,17 +4033,17 @@
       <c r="D58" s="7">
         <v>9049590790</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="18"/>
+      <c r="E58" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16"/>
       <c r="G58" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="17" t="s">
+      <c r="H58" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="I58" s="18"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -4040,17 +4058,17 @@
       <c r="D59" s="7">
         <v>8878955783</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="18"/>
+      <c r="E59" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16"/>
       <c r="G59" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="17" t="s">
+      <c r="H59" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I59" s="18"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
@@ -4065,17 +4083,17 @@
       <c r="D60" s="7">
         <v>8055485503</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="18"/>
+      <c r="E60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16"/>
       <c r="G60" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="17" t="s">
+      <c r="H60" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="18"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -4090,17 +4108,17 @@
       <c r="D61" s="7">
         <v>9479724991</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="18"/>
+      <c r="E61" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16"/>
       <c r="G61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="17" t="s">
+      <c r="H61" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="I61" s="18"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
@@ -4115,17 +4133,17 @@
       <c r="D62" s="7">
         <v>8818911709</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="18"/>
+      <c r="E62" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16"/>
       <c r="G62" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H62" s="17" t="s">
+      <c r="H62" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="18"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -4140,17 +4158,17 @@
       <c r="D63" s="10">
         <v>9165179330</v>
       </c>
-      <c r="E63" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="18"/>
+      <c r="E63" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16"/>
       <c r="G63" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="17" t="s">
+      <c r="H63" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="I63" s="18"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -4165,17 +4183,17 @@
       <c r="D64" s="7">
         <v>8602538867</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="18"/>
+      <c r="E64" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16"/>
       <c r="G64" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H64" s="17" t="s">
+      <c r="H64" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="I64" s="18"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -4190,17 +4208,17 @@
       <c r="D65" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F65" s="18"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I65" s="18"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
@@ -4215,17 +4233,17 @@
       <c r="D66" s="7">
         <v>7389731092</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="18"/>
+      <c r="E66" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16"/>
       <c r="G66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H66" s="17" t="s">
+      <c r="H66" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="I66" s="18"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -4240,17 +4258,17 @@
       <c r="D67" s="7">
         <v>8982221120</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" s="18"/>
+      <c r="E67" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="16"/>
       <c r="G67" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="17" t="s">
+      <c r="H67" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I67" s="18"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
@@ -4265,17 +4283,17 @@
       <c r="D68" s="7">
         <v>9754291872</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="18"/>
+      <c r="E68" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="16"/>
       <c r="G68" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="17" t="s">
+      <c r="H68" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="I68" s="18"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
@@ -4290,17 +4308,17 @@
       <c r="D69" s="7">
         <v>8126124962</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="18"/>
+      <c r="E69" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="16"/>
       <c r="G69" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H69" s="17" t="s">
+      <c r="H69" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="I69" s="18"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -4315,17 +4333,17 @@
       <c r="D70" s="7">
         <v>9179172460</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" s="18"/>
+      <c r="E70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="16"/>
       <c r="G70" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H70" s="17" t="s">
+      <c r="H70" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="I70" s="18"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -4340,17 +4358,17 @@
       <c r="D71" s="7">
         <v>9752305107</v>
       </c>
-      <c r="E71" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="18"/>
+      <c r="E71" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="16"/>
       <c r="G71" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H71" s="17" t="s">
+      <c r="H71" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I71" s="18"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
@@ -4365,17 +4383,17 @@
       <c r="D72" s="7">
         <v>9406649589</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="18"/>
+      <c r="E72" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="16"/>
       <c r="G72" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H72" s="17" t="s">
+      <c r="H72" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I72" s="18"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -4390,17 +4408,17 @@
       <c r="D73" s="7">
         <v>9685013001</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="18"/>
+      <c r="E73" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="16"/>
       <c r="G73" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H73" s="17" t="s">
+      <c r="H73" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="I73" s="18"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -4415,17 +4433,17 @@
       <c r="D74" s="7">
         <v>9685233022</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74" s="18"/>
+      <c r="E74" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="16"/>
       <c r="G74" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H74" s="17" t="s">
+      <c r="H74" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I74" s="18"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -4440,17 +4458,17 @@
       <c r="D75" s="7">
         <v>7879163167</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F75" s="18"/>
+      <c r="E75" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="16"/>
       <c r="G75" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H75" s="17" t="s">
+      <c r="H75" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="I75" s="18"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
@@ -4465,17 +4483,17 @@
       <c r="D76" s="7">
         <v>8269710693</v>
       </c>
-      <c r="E76" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="18"/>
+      <c r="E76" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="16"/>
       <c r="G76" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="H76" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="I76" s="18"/>
+      <c r="I76" s="16"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
@@ -4490,17 +4508,17 @@
       <c r="D77" s="7">
         <v>7804002219</v>
       </c>
-      <c r="E77" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F77" s="18"/>
+      <c r="E77" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="16"/>
       <c r="G77" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H77" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I77" s="18"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
@@ -4515,17 +4533,17 @@
       <c r="D78" s="7">
         <v>9644444509</v>
       </c>
-      <c r="E78" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="18"/>
+      <c r="E78" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="16"/>
       <c r="G78" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="17" t="s">
+      <c r="H78" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="I78" s="18"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -4540,17 +4558,17 @@
       <c r="D79" s="7">
         <v>8602747485</v>
       </c>
-      <c r="E79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F79" s="18"/>
+      <c r="E79" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="16"/>
       <c r="G79" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H79" s="17" t="s">
+      <c r="H79" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I79" s="18"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -4565,17 +4583,17 @@
       <c r="D80" s="7">
         <v>9713301388</v>
       </c>
-      <c r="E80" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F80" s="18"/>
+      <c r="E80" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="16"/>
       <c r="G80" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="17" t="s">
+      <c r="H80" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="I80" s="18"/>
+      <c r="I80" s="16"/>
     </row>
     <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -4590,17 +4608,17 @@
       <c r="D81" s="7">
         <v>9165360190</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F81" s="18"/>
+      <c r="E81" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="16"/>
       <c r="G81" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H81" s="17" t="s">
+      <c r="H81" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="I81" s="18"/>
+      <c r="I81" s="16"/>
     </row>
     <row r="82" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -4615,17 +4633,17 @@
       <c r="D82" s="7">
         <v>7748890171</v>
       </c>
-      <c r="E82" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F82" s="18"/>
+      <c r="E82" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="16"/>
       <c r="G82" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H82" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="I82" s="18"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -4640,17 +4658,17 @@
       <c r="D83" s="7">
         <v>8458816298</v>
       </c>
-      <c r="E83" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F83" s="18"/>
+      <c r="E83" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="16"/>
       <c r="G83" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H83" s="17" t="s">
+      <c r="H83" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="I83" s="18"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4665,17 +4683,17 @@
       <c r="D84" s="7">
         <v>9039531028</v>
       </c>
-      <c r="E84" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="18"/>
+      <c r="E84" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="16"/>
       <c r="G84" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H84" s="17" t="s">
+      <c r="H84" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="I84" s="18"/>
+      <c r="I84" s="16"/>
     </row>
     <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4690,17 +4708,17 @@
       <c r="D85" s="7">
         <v>8517012340</v>
       </c>
-      <c r="E85" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F85" s="18"/>
+      <c r="E85" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="16"/>
       <c r="G85" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H85" s="17" t="s">
+      <c r="H85" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I85" s="18"/>
+      <c r="I85" s="16"/>
     </row>
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4715,17 +4733,17 @@
       <c r="D86" s="7">
         <v>9644706115</v>
       </c>
-      <c r="E86" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="18"/>
+      <c r="E86" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="16"/>
       <c r="G86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="H86" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="I86" s="18"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -4740,17 +4758,17 @@
       <c r="D87" s="7">
         <v>9617304100</v>
       </c>
-      <c r="E87" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F87" s="18"/>
+      <c r="E87" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="16"/>
       <c r="G87" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H87" s="17" t="s">
+      <c r="H87" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="I87" s="18"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
@@ -4765,17 +4783,17 @@
       <c r="D88" s="7">
         <v>7415836066</v>
       </c>
-      <c r="E88" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="18"/>
+      <c r="E88" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="16"/>
       <c r="G88" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H88" s="17" t="s">
+      <c r="H88" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="I88" s="18"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -4790,17 +4808,17 @@
       <c r="D89" s="7">
         <v>8349817268</v>
       </c>
-      <c r="E89" s="17" t="s">
+      <c r="E89" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="F89" s="18"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H89" s="17" t="s">
+      <c r="H89" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="I89" s="18"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
@@ -4815,17 +4833,17 @@
       <c r="D90" s="7">
         <v>7999038285</v>
       </c>
-      <c r="E90" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" s="18"/>
+      <c r="E90" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" s="16"/>
       <c r="G90" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H90" s="17" t="s">
+      <c r="H90" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="I90" s="18"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
@@ -4840,17 +4858,17 @@
       <c r="D91" s="7">
         <v>7869340478</v>
       </c>
-      <c r="E91" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="18"/>
+      <c r="E91" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="16"/>
       <c r="G91" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="17" t="s">
+      <c r="H91" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="I91" s="18"/>
+      <c r="I91" s="16"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -4865,17 +4883,17 @@
       <c r="D92" s="7">
         <v>7747825050</v>
       </c>
-      <c r="E92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F92" s="18"/>
+      <c r="E92" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="16"/>
       <c r="G92" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H92" s="17" t="s">
+      <c r="H92" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="I92" s="18"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -4890,17 +4908,17 @@
       <c r="D93" s="7">
         <v>8461005700</v>
       </c>
-      <c r="E93" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F93" s="18"/>
+      <c r="E93" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="16"/>
       <c r="G93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="17" t="s">
+      <c r="H93" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="I93" s="18"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="94" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -4915,17 +4933,17 @@
       <c r="D94" s="7">
         <v>9827848869</v>
       </c>
-      <c r="E94" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" s="18"/>
+      <c r="E94" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" s="16"/>
       <c r="G94" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H94" s="17" t="s">
+      <c r="H94" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="I94" s="18"/>
+      <c r="I94" s="16"/>
     </row>
     <row r="95" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -4940,17 +4958,17 @@
       <c r="D95" s="7">
         <v>7389693242</v>
       </c>
-      <c r="E95" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" s="18"/>
+      <c r="E95" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="16"/>
       <c r="G95" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="H95" s="17" t="s">
+      <c r="H95" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="I95" s="18"/>
+      <c r="I95" s="16"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
@@ -4965,17 +4983,17 @@
       <c r="D96" s="7">
         <v>7049994945</v>
       </c>
-      <c r="E96" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="18"/>
+      <c r="E96" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="16"/>
       <c r="G96" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="H96" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="I96" s="18"/>
+      <c r="I96" s="16"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -4990,17 +5008,17 @@
       <c r="D97" s="7">
         <v>7898682267</v>
       </c>
-      <c r="E97" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F97" s="18"/>
+      <c r="E97" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="16"/>
       <c r="G97" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="17" t="s">
+      <c r="H97" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I97" s="18"/>
+      <c r="I97" s="16"/>
     </row>
     <row r="98" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -5015,17 +5033,17 @@
       <c r="D98" s="7">
         <v>7225996655</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="18"/>
+      <c r="E98" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="16"/>
       <c r="G98" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="H98" s="17" t="s">
+      <c r="H98" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="I98" s="18"/>
+      <c r="I98" s="16"/>
     </row>
     <row r="99" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5040,17 +5058,17 @@
       <c r="D99" s="7">
         <v>8989403886</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F99" s="18"/>
+      <c r="E99" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="16"/>
       <c r="G99" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="H99" s="17" t="s">
+      <c r="H99" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I99" s="18"/>
+      <c r="I99" s="16"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -5065,17 +5083,17 @@
       <c r="D100" s="7">
         <v>7898019634</v>
       </c>
-      <c r="E100" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F100" s="18"/>
+      <c r="E100" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="16"/>
       <c r="G100" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H100" s="17" t="s">
+      <c r="H100" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="I100" s="18"/>
+      <c r="I100" s="16"/>
     </row>
     <row r="101" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -5090,17 +5108,17 @@
       <c r="D101" s="7">
         <v>7771999649</v>
       </c>
-      <c r="E101" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="18"/>
+      <c r="E101" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="16"/>
       <c r="G101" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H101" s="17" t="s">
+      <c r="H101" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="I101" s="18"/>
+      <c r="I101" s="16"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
@@ -5115,17 +5133,17 @@
       <c r="D102" s="7">
         <v>7772055520</v>
       </c>
-      <c r="E102" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F102" s="18"/>
+      <c r="E102" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="16"/>
       <c r="G102" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H102" s="17" t="s">
+      <c r="H102" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="I102" s="18"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
@@ -5140,17 +5158,17 @@
       <c r="D103" s="7">
         <v>9977998113</v>
       </c>
-      <c r="E103" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F103" s="18"/>
+      <c r="E103" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="16"/>
       <c r="G103" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H103" s="17" t="s">
+      <c r="H103" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="I103" s="18"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -5165,17 +5183,17 @@
       <c r="D104" s="7">
         <v>9424835949</v>
       </c>
-      <c r="E104" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F104" s="18"/>
+      <c r="E104" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="16"/>
       <c r="G104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="H104" s="17" t="s">
+      <c r="H104" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I104" s="18"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
@@ -5190,17 +5208,17 @@
       <c r="D105" s="7">
         <v>9479444215</v>
       </c>
-      <c r="E105" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="18"/>
+      <c r="E105" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="16"/>
       <c r="G105" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H105" s="17" t="s">
+      <c r="H105" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I105" s="18"/>
+      <c r="I105" s="16"/>
     </row>
     <row r="106" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
@@ -5215,17 +5233,17 @@
       <c r="D106" s="7">
         <v>9753583488</v>
       </c>
-      <c r="E106" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="18"/>
+      <c r="E106" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="16"/>
       <c r="G106" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H106" s="17" t="s">
+      <c r="H106" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="I106" s="18"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -5240,17 +5258,17 @@
       <c r="D107" s="7">
         <v>8878326313</v>
       </c>
-      <c r="E107" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="18"/>
+      <c r="E107" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="16"/>
       <c r="G107" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H107" s="17" t="s">
+      <c r="H107" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="I107" s="18"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
@@ -5265,17 +5283,17 @@
       <c r="D108" s="7">
         <v>9977761644</v>
       </c>
-      <c r="E108" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="18"/>
+      <c r="E108" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="16"/>
       <c r="G108" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H108" s="17" t="s">
+      <c r="H108" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I108" s="18"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
@@ -5290,17 +5308,17 @@
       <c r="D109" s="7">
         <v>9752574365</v>
       </c>
-      <c r="E109" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="18"/>
+      <c r="E109" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="16"/>
       <c r="G109" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H109" s="17" t="s">
+      <c r="H109" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I109" s="18"/>
+      <c r="I109" s="16"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
@@ -5315,17 +5333,17 @@
       <c r="D110" s="7">
         <v>8358939259</v>
       </c>
-      <c r="E110" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F110" s="18"/>
+      <c r="E110" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="16"/>
       <c r="G110" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="17" t="s">
+      <c r="H110" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="I110" s="18"/>
+      <c r="I110" s="16"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
@@ -5340,17 +5358,17 @@
       <c r="D111" s="7">
         <v>9926822793</v>
       </c>
-      <c r="E111" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="18"/>
+      <c r="E111" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="16"/>
       <c r="G111" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="H111" s="17" t="s">
+      <c r="H111" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="I111" s="18"/>
+      <c r="I111" s="16"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
@@ -5365,17 +5383,17 @@
       <c r="D112" s="7">
         <v>9755766846</v>
       </c>
-      <c r="E112" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F112" s="18"/>
+      <c r="E112" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="16"/>
       <c r="G112" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="H112" s="17" t="s">
+      <c r="H112" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="I112" s="18"/>
+      <c r="I112" s="16"/>
     </row>
     <row r="113" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
@@ -5390,17 +5408,17 @@
       <c r="D113" s="7">
         <v>9009118756</v>
       </c>
-      <c r="E113" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F113" s="18"/>
+      <c r="E113" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="16"/>
       <c r="G113" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H113" s="17" t="s">
+      <c r="H113" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="I113" s="18"/>
+      <c r="I113" s="16"/>
     </row>
     <row r="114" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
@@ -5415,17 +5433,17 @@
       <c r="D114" s="7">
         <v>7566016822</v>
       </c>
-      <c r="E114" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F114" s="18"/>
+      <c r="E114" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="16"/>
       <c r="G114" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H114" s="17" t="s">
+      <c r="H114" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="I114" s="18"/>
+      <c r="I114" s="16"/>
     </row>
     <row r="115" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
@@ -5440,17 +5458,17 @@
       <c r="D115" s="7">
         <v>8085675177</v>
       </c>
-      <c r="E115" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F115" s="18"/>
+      <c r="E115" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="16"/>
       <c r="G115" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H115" s="17" t="s">
+      <c r="H115" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I115" s="18"/>
+      <c r="I115" s="16"/>
     </row>
     <row r="116" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
@@ -5465,17 +5483,17 @@
       <c r="D116" s="7">
         <v>9109633739</v>
       </c>
-      <c r="E116" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F116" s="18"/>
+      <c r="E116" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="16"/>
       <c r="G116" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="17" t="s">
+      <c r="H116" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I116" s="18"/>
+      <c r="I116" s="16"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
@@ -5490,17 +5508,17 @@
       <c r="D117" s="7">
         <v>9755603309</v>
       </c>
-      <c r="E117" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F117" s="18"/>
+      <c r="E117" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="16"/>
       <c r="G117" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="17" t="s">
+      <c r="H117" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I117" s="18"/>
+      <c r="I117" s="16"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
@@ -5515,17 +5533,17 @@
       <c r="D118" s="7">
         <v>7697773909</v>
       </c>
-      <c r="E118" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F118" s="18"/>
+      <c r="E118" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="16"/>
       <c r="G118" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H118" s="17" t="s">
+      <c r="H118" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="I118" s="18"/>
+      <c r="I118" s="16"/>
     </row>
     <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
@@ -5540,17 +5558,17 @@
       <c r="D119" s="7">
         <v>9806083302</v>
       </c>
-      <c r="E119" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F119" s="18"/>
+      <c r="E119" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" s="16"/>
       <c r="G119" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H119" s="17" t="s">
+      <c r="H119" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I119" s="18"/>
+      <c r="I119" s="16"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
@@ -5565,17 +5583,17 @@
       <c r="D120" s="7">
         <v>7247087692</v>
       </c>
-      <c r="E120" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F120" s="18"/>
+      <c r="E120" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="16"/>
       <c r="G120" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H120" s="17" t="s">
+      <c r="H120" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="I120" s="18"/>
+      <c r="I120" s="16"/>
     </row>
     <row r="121" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
@@ -5590,17 +5608,17 @@
       <c r="D121" s="7">
         <v>94251710154</v>
       </c>
-      <c r="E121" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F121" s="18"/>
+      <c r="E121" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="16"/>
       <c r="G121" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H121" s="17" t="s">
+      <c r="H121" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I121" s="18"/>
+      <c r="I121" s="16"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
@@ -5615,17 +5633,17 @@
       <c r="D122" s="7">
         <v>9424852516</v>
       </c>
-      <c r="E122" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F122" s="18"/>
+      <c r="E122" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="16"/>
       <c r="G122" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H122" s="17" t="s">
+      <c r="H122" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I122" s="18"/>
+      <c r="I122" s="16"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -5640,17 +5658,17 @@
       <c r="D123" s="7">
         <v>7509227568</v>
       </c>
-      <c r="E123" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F123" s="18"/>
+      <c r="E123" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="16"/>
       <c r="G123" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H123" s="17" t="s">
+      <c r="H123" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="I123" s="18"/>
+      <c r="I123" s="16"/>
     </row>
     <row r="124" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
@@ -5665,17 +5683,17 @@
       <c r="D124" s="7">
         <v>9926090760</v>
       </c>
-      <c r="E124" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F124" s="18"/>
+      <c r="E124" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" s="16"/>
       <c r="G124" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H124" s="17" t="s">
+      <c r="H124" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I124" s="18"/>
+      <c r="I124" s="16"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
@@ -5690,17 +5708,17 @@
       <c r="D125" s="13">
         <v>9039160119</v>
       </c>
-      <c r="E125" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F125" s="20"/>
+      <c r="E125" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="18"/>
       <c r="G125" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H125" s="17" t="s">
+      <c r="H125" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="I125" s="18"/>
+      <c r="I125" s="16"/>
     </row>
     <row r="126" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
@@ -5715,17 +5733,17 @@
       <c r="D126" s="7">
         <v>9294889732</v>
       </c>
-      <c r="E126" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F126" s="18"/>
+      <c r="E126" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="16"/>
       <c r="G126" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H126" s="17" t="s">
+      <c r="H126" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I126" s="18"/>
+      <c r="I126" s="16"/>
     </row>
     <row r="127" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
@@ -5740,17 +5758,17 @@
       <c r="D127" s="7">
         <v>7987119832</v>
       </c>
-      <c r="E127" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F127" s="18"/>
+      <c r="E127" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="16"/>
       <c r="G127" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="17" t="s">
+      <c r="H127" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="I127" s="18"/>
+      <c r="I127" s="16"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
@@ -5765,17 +5783,17 @@
       <c r="D128" s="7">
         <v>8602231731</v>
       </c>
-      <c r="E128" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F128" s="18"/>
+      <c r="E128" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" s="16"/>
       <c r="G128" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H128" s="17" t="s">
+      <c r="H128" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I128" s="18"/>
+      <c r="I128" s="16"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -5790,17 +5808,17 @@
       <c r="D129" s="7">
         <v>7415282551</v>
       </c>
-      <c r="E129" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F129" s="18"/>
+      <c r="E129" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="16"/>
       <c r="G129" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H129" s="17" t="s">
+      <c r="H129" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="I129" s="18"/>
+      <c r="I129" s="16"/>
     </row>
     <row r="130" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
@@ -5815,17 +5833,17 @@
       <c r="D130" s="7">
         <v>9685678178</v>
       </c>
-      <c r="E130" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F130" s="18"/>
+      <c r="E130" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="16"/>
       <c r="G130" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H130" s="17" t="s">
+      <c r="H130" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I130" s="18"/>
+      <c r="I130" s="16"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
@@ -5840,17 +5858,17 @@
       <c r="D131" s="7">
         <v>8359012540</v>
       </c>
-      <c r="E131" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F131" s="18"/>
+      <c r="E131" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="16"/>
       <c r="G131" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H131" s="17" t="s">
+      <c r="H131" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I131" s="18"/>
+      <c r="I131" s="16"/>
     </row>
     <row r="132" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
@@ -5865,17 +5883,17 @@
       <c r="D132" s="7">
         <v>9977730090</v>
       </c>
-      <c r="E132" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F132" s="18"/>
+      <c r="E132" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="16"/>
       <c r="G132" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="17" t="s">
+      <c r="H132" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I132" s="18"/>
+      <c r="I132" s="16"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
@@ -5890,17 +5908,17 @@
       <c r="D133" s="7">
         <v>8989460050</v>
       </c>
-      <c r="E133" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F133" s="18"/>
+      <c r="E133" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="16"/>
       <c r="G133" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="17" t="s">
+      <c r="H133" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I133" s="18"/>
+      <c r="I133" s="16"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
@@ -5915,17 +5933,17 @@
       <c r="D134" s="7">
         <v>9617851012</v>
       </c>
-      <c r="E134" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" s="18"/>
+      <c r="E134" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="16"/>
       <c r="G134" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="17" t="s">
+      <c r="H134" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I134" s="18"/>
+      <c r="I134" s="16"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
@@ -5940,17 +5958,17 @@
       <c r="D135" s="7">
         <v>8602536930</v>
       </c>
-      <c r="E135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F135" s="18"/>
+      <c r="E135" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" s="16"/>
       <c r="G135" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="17" t="s">
+      <c r="H135" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="I135" s="18"/>
+      <c r="I135" s="16"/>
     </row>
     <row r="136" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
@@ -5965,17 +5983,17 @@
       <c r="D136" s="7">
         <v>8871965573</v>
       </c>
-      <c r="E136" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F136" s="18"/>
+      <c r="E136" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" s="16"/>
       <c r="G136" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H136" s="17" t="s">
+      <c r="H136" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="I136" s="18"/>
+      <c r="I136" s="16"/>
     </row>
     <row r="137" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
@@ -5990,17 +6008,17 @@
       <c r="D137" s="7">
         <v>8827710625</v>
       </c>
-      <c r="E137" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F137" s="18"/>
+      <c r="E137" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" s="16"/>
       <c r="G137" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H137" s="17" t="s">
+      <c r="H137" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="I137" s="18"/>
+      <c r="I137" s="16"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -6015,17 +6033,17 @@
       <c r="D138" s="7">
         <v>9424822120</v>
       </c>
-      <c r="E138" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F138" s="18"/>
+      <c r="E138" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" s="16"/>
       <c r="G138" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H138" s="17" t="s">
+      <c r="H138" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I138" s="18"/>
+      <c r="I138" s="16"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
@@ -6040,17 +6058,17 @@
       <c r="D139" s="7">
         <v>8871006521</v>
       </c>
-      <c r="E139" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F139" s="18"/>
+      <c r="E139" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" s="16"/>
       <c r="G139" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H139" s="17" t="s">
+      <c r="H139" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I139" s="18"/>
+      <c r="I139" s="16"/>
     </row>
     <row r="140" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
@@ -6065,17 +6083,17 @@
       <c r="D140" s="7">
         <v>7223805976</v>
       </c>
-      <c r="E140" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F140" s="18"/>
+      <c r="E140" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" s="16"/>
       <c r="G140" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H140" s="17" t="s">
+      <c r="H140" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I140" s="18"/>
+      <c r="I140" s="16"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
@@ -6090,17 +6108,17 @@
       <c r="D141" s="7">
         <v>9926280831</v>
       </c>
-      <c r="E141" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F141" s="18"/>
+      <c r="E141" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" s="16"/>
       <c r="G141" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H141" s="17" t="s">
+      <c r="H141" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="I141" s="18"/>
+      <c r="I141" s="16"/>
     </row>
     <row r="142" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
@@ -6115,17 +6133,17 @@
       <c r="D142" s="7">
         <v>8103767722</v>
       </c>
-      <c r="E142" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F142" s="18"/>
+      <c r="E142" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" s="16"/>
       <c r="G142" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H142" s="17" t="s">
+      <c r="H142" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I142" s="18"/>
+      <c r="I142" s="16"/>
     </row>
     <row r="143" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
@@ -6140,17 +6158,17 @@
       <c r="D143" s="7">
         <v>9993542540</v>
       </c>
-      <c r="E143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F143" s="18"/>
+      <c r="E143" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" s="16"/>
       <c r="G143" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H143" s="17" t="s">
+      <c r="H143" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I143" s="18"/>
+      <c r="I143" s="16"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
@@ -6165,17 +6183,17 @@
       <c r="D144" s="7">
         <v>9691997292</v>
       </c>
-      <c r="E144" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F144" s="18"/>
+      <c r="E144" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F144" s="16"/>
       <c r="G144" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H144" s="17" t="s">
+      <c r="H144" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I144" s="18"/>
+      <c r="I144" s="16"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
@@ -6190,17 +6208,17 @@
       <c r="D145" s="7">
         <v>9294788178</v>
       </c>
-      <c r="E145" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F145" s="18"/>
+      <c r="E145" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="16"/>
       <c r="G145" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H145" s="17" t="s">
+      <c r="H145" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I145" s="18"/>
+      <c r="I145" s="16"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
@@ -6215,17 +6233,17 @@
       <c r="D146" s="7">
         <v>9407131982</v>
       </c>
-      <c r="E146" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F146" s="18"/>
+      <c r="E146" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" s="16"/>
       <c r="G146" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H146" s="17" t="s">
+      <c r="H146" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I146" s="18"/>
+      <c r="I146" s="16"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
@@ -6240,17 +6258,17 @@
       <c r="D147" s="13">
         <v>9144212529</v>
       </c>
-      <c r="E147" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F147" s="20"/>
+      <c r="E147" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" s="18"/>
       <c r="G147" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H147" s="17" t="s">
+      <c r="H147" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="I147" s="18"/>
+      <c r="I147" s="16"/>
     </row>
     <row r="148" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
@@ -6265,17 +6283,17 @@
       <c r="D148" s="7">
         <v>9425442800</v>
       </c>
-      <c r="E148" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F148" s="18"/>
+      <c r="E148" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" s="16"/>
       <c r="G148" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H148" s="17" t="s">
+      <c r="H148" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="I148" s="18"/>
+      <c r="I148" s="16"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
@@ -6290,17 +6308,17 @@
       <c r="D149" s="7">
         <v>9630248593</v>
       </c>
-      <c r="E149" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F149" s="18"/>
+      <c r="E149" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="16"/>
       <c r="G149" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H149" s="17" t="s">
+      <c r="H149" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I149" s="18"/>
+      <c r="I149" s="16"/>
     </row>
     <row r="150" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
@@ -6315,17 +6333,17 @@
       <c r="D150" s="7">
         <v>7828017926</v>
       </c>
-      <c r="E150" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F150" s="18"/>
+      <c r="E150" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" s="16"/>
       <c r="G150" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H150" s="17" t="s">
+      <c r="H150" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I150" s="18"/>
+      <c r="I150" s="16"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
@@ -6340,17 +6358,17 @@
       <c r="D151" s="7">
         <v>9926266212</v>
       </c>
-      <c r="E151" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F151" s="18"/>
+      <c r="E151" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="16"/>
       <c r="G151" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H151" s="17" t="s">
+      <c r="H151" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I151" s="18"/>
+      <c r="I151" s="16"/>
     </row>
     <row r="152" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
@@ -6365,17 +6383,17 @@
       <c r="D152" s="7">
         <v>7974164996</v>
       </c>
-      <c r="E152" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F152" s="18"/>
+      <c r="E152" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" s="16"/>
       <c r="G152" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H152" s="17" t="s">
+      <c r="H152" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I152" s="18"/>
+      <c r="I152" s="16"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
@@ -6390,17 +6408,17 @@
       <c r="D153" s="7">
         <v>7879286783</v>
       </c>
-      <c r="E153" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F153" s="18"/>
+      <c r="E153" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" s="16"/>
       <c r="G153" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H153" s="17" t="s">
+      <c r="H153" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="I153" s="18"/>
+      <c r="I153" s="16"/>
     </row>
     <row r="154" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
@@ -6415,17 +6433,17 @@
       <c r="D154" s="7">
         <v>8982551063</v>
       </c>
-      <c r="E154" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F154" s="18"/>
+      <c r="E154" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" s="16"/>
       <c r="G154" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H154" s="17" t="s">
+      <c r="H154" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="I154" s="18"/>
+      <c r="I154" s="16"/>
     </row>
     <row r="155" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
@@ -6440,17 +6458,17 @@
       <c r="D155" s="7">
         <v>9407178406</v>
       </c>
-      <c r="E155" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F155" s="18"/>
+      <c r="E155" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" s="16"/>
       <c r="G155" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H155" s="17" t="s">
+      <c r="H155" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I155" s="18"/>
+      <c r="I155" s="16"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
@@ -6465,17 +6483,17 @@
       <c r="D156" s="7">
         <v>8989422414</v>
       </c>
-      <c r="E156" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F156" s="18"/>
+      <c r="E156" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" s="16"/>
       <c r="G156" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H156" s="17" t="s">
+      <c r="H156" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I156" s="18"/>
+      <c r="I156" s="16"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
@@ -6490,17 +6508,17 @@
       <c r="D157" s="7">
         <v>9691671913</v>
       </c>
-      <c r="E157" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F157" s="18"/>
+      <c r="E157" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" s="16"/>
       <c r="G157" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H157" s="17" t="s">
+      <c r="H157" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I157" s="18"/>
+      <c r="I157" s="16"/>
     </row>
     <row r="158" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
@@ -6515,17 +6533,17 @@
       <c r="D158" s="7">
         <v>9893544359</v>
       </c>
-      <c r="E158" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F158" s="18"/>
+      <c r="E158" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" s="16"/>
       <c r="G158" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H158" s="17" t="s">
+      <c r="H158" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I158" s="18"/>
+      <c r="I158" s="16"/>
     </row>
     <row r="159" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
@@ -6540,17 +6558,17 @@
       <c r="D159" s="7">
         <v>8989902843</v>
       </c>
-      <c r="E159" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F159" s="18"/>
+      <c r="E159" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" s="16"/>
       <c r="G159" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H159" s="17" t="s">
+      <c r="H159" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="I159" s="18"/>
+      <c r="I159" s="16"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
@@ -6565,17 +6583,17 @@
       <c r="D160" s="7">
         <v>8236059960</v>
       </c>
-      <c r="E160" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F160" s="18"/>
+      <c r="E160" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" s="16"/>
       <c r="G160" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H160" s="17" t="s">
+      <c r="H160" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I160" s="18"/>
+      <c r="I160" s="16"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
@@ -6590,17 +6608,17 @@
       <c r="D161" s="7">
         <v>7509900244</v>
       </c>
-      <c r="E161" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="18"/>
+      <c r="E161" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" s="16"/>
       <c r="G161" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H161" s="17" t="s">
+      <c r="H161" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I161" s="18"/>
+      <c r="I161" s="16"/>
     </row>
     <row r="162" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
@@ -6615,17 +6633,17 @@
       <c r="D162" s="7">
         <v>9806115350</v>
       </c>
-      <c r="E162" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F162" s="18"/>
+      <c r="E162" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="16"/>
       <c r="G162" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H162" s="17" t="s">
+      <c r="H162" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="I162" s="18"/>
+      <c r="I162" s="16"/>
     </row>
     <row r="163" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
@@ -6640,17 +6658,17 @@
       <c r="D163" s="7">
         <v>8878352998</v>
       </c>
-      <c r="E163" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F163" s="18"/>
+      <c r="E163" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" s="16"/>
       <c r="G163" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H163" s="17" t="s">
+      <c r="H163" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I163" s="18"/>
+      <c r="I163" s="16"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
@@ -6665,17 +6683,17 @@
       <c r="D164" s="7">
         <v>8982819384</v>
       </c>
-      <c r="E164" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F164" s="18"/>
+      <c r="E164" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F164" s="16"/>
       <c r="G164" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H164" s="17" t="s">
+      <c r="H164" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I164" s="18"/>
+      <c r="I164" s="16"/>
     </row>
     <row r="165" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
@@ -6690,17 +6708,17 @@
       <c r="D165" s="7">
         <v>9009540910</v>
       </c>
-      <c r="E165" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F165" s="18"/>
+      <c r="E165" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" s="16"/>
       <c r="G165" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H165" s="17" t="s">
+      <c r="H165" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I165" s="18"/>
+      <c r="I165" s="16"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
@@ -6715,17 +6733,17 @@
       <c r="D166" s="7">
         <v>9575862482</v>
       </c>
-      <c r="E166" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F166" s="18"/>
+      <c r="E166" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F166" s="16"/>
       <c r="G166" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H166" s="17" t="s">
+      <c r="H166" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="I166" s="18"/>
+      <c r="I166" s="16"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
@@ -6740,17 +6758,17 @@
       <c r="D167" s="7">
         <v>9993015144</v>
       </c>
-      <c r="E167" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F167" s="18"/>
+      <c r="E167" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" s="16"/>
       <c r="G167" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H167" s="17" t="s">
+      <c r="H167" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I167" s="18"/>
+      <c r="I167" s="16"/>
     </row>
     <row r="168" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
@@ -6765,17 +6783,17 @@
       <c r="D168" s="7">
         <v>9685853964</v>
       </c>
-      <c r="E168" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F168" s="18"/>
+      <c r="E168" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F168" s="16"/>
       <c r="G168" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H168" s="17" t="s">
+      <c r="H168" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="I168" s="18"/>
+      <c r="I168" s="16"/>
     </row>
     <row r="169" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
@@ -6790,17 +6808,17 @@
       <c r="D169" s="7">
         <v>8871309028</v>
       </c>
-      <c r="E169" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F169" s="18"/>
+      <c r="E169" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" s="16"/>
       <c r="G169" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H169" s="17" t="s">
+      <c r="H169" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I169" s="18"/>
+      <c r="I169" s="16"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
@@ -6815,17 +6833,17 @@
       <c r="D170" s="7">
         <v>9406615795</v>
       </c>
-      <c r="E170" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F170" s="18"/>
+      <c r="E170" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170" s="16"/>
       <c r="G170" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="17" t="s">
+      <c r="H170" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="I170" s="18"/>
+      <c r="I170" s="16"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
@@ -6840,17 +6858,17 @@
       <c r="D171" s="7">
         <v>8989883833</v>
       </c>
-      <c r="E171" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F171" s="18"/>
+      <c r="E171" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" s="16"/>
       <c r="G171" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H171" s="17" t="s">
+      <c r="H171" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I171" s="18"/>
+      <c r="I171" s="16"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
@@ -6865,17 +6883,17 @@
       <c r="D172" s="7">
         <v>7049613592</v>
       </c>
-      <c r="E172" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F172" s="18"/>
+      <c r="E172" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="16"/>
       <c r="G172" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H172" s="17" t="s">
+      <c r="H172" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I172" s="18"/>
+      <c r="I172" s="16"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
@@ -6890,17 +6908,17 @@
       <c r="D173" s="7">
         <v>8982850016</v>
       </c>
-      <c r="E173" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F173" s="18"/>
+      <c r="E173" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" s="16"/>
       <c r="G173" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H173" s="17" t="s">
+      <c r="H173" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I173" s="18"/>
+      <c r="I173" s="16"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
@@ -6915,17 +6933,17 @@
       <c r="D174" s="7">
         <v>8823000581</v>
       </c>
-      <c r="E174" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F174" s="18"/>
+      <c r="E174" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" s="16"/>
       <c r="G174" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H174" s="17" t="s">
+      <c r="H174" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I174" s="18"/>
+      <c r="I174" s="16"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -6940,17 +6958,17 @@
       <c r="D175" s="7">
         <v>9179370289</v>
       </c>
-      <c r="E175" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F175" s="18"/>
+      <c r="E175" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F175" s="16"/>
       <c r="G175" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H175" s="17" t="s">
+      <c r="H175" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I175" s="18"/>
+      <c r="I175" s="16"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -6965,17 +6983,17 @@
       <c r="D176" s="7">
         <v>9406800960</v>
       </c>
-      <c r="E176" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F176" s="18"/>
+      <c r="E176" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F176" s="16"/>
       <c r="G176" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H176" s="17" t="s">
+      <c r="H176" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="I176" s="18"/>
+      <c r="I176" s="16"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -6990,17 +7008,17 @@
       <c r="D177" s="7">
         <v>9691778014</v>
       </c>
-      <c r="E177" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F177" s="18"/>
+      <c r="E177" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F177" s="16"/>
       <c r="G177" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H177" s="17" t="s">
+      <c r="H177" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I177" s="18"/>
+      <c r="I177" s="16"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
@@ -7015,17 +7033,17 @@
       <c r="D178" s="7">
         <v>9179064316</v>
       </c>
-      <c r="E178" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F178" s="18"/>
+      <c r="E178" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178" s="16"/>
       <c r="G178" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H178" s="17" t="s">
+      <c r="H178" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I178" s="18"/>
+      <c r="I178" s="16"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
@@ -7040,17 +7058,17 @@
       <c r="D179" s="7">
         <v>9993376743</v>
       </c>
-      <c r="E179" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F179" s="18"/>
+      <c r="E179" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F179" s="16"/>
       <c r="G179" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H179" s="17" t="s">
+      <c r="H179" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I179" s="18"/>
+      <c r="I179" s="16"/>
     </row>
     <row r="180" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
@@ -7065,17 +7083,17 @@
       <c r="D180" s="7">
         <v>9406843100</v>
       </c>
-      <c r="E180" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F180" s="18"/>
+      <c r="E180" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F180" s="16"/>
       <c r="G180" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H180" s="17" t="s">
+      <c r="H180" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I180" s="18"/>
+      <c r="I180" s="16"/>
     </row>
     <row r="181" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -7090,17 +7108,17 @@
       <c r="D181" s="7">
         <v>9424028237</v>
       </c>
-      <c r="E181" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F181" s="18"/>
+      <c r="E181" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F181" s="16"/>
       <c r="G181" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="17" t="s">
+      <c r="H181" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="I181" s="18"/>
+      <c r="I181" s="16"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
@@ -7115,17 +7133,17 @@
       <c r="D182" s="7">
         <v>8963975526</v>
       </c>
-      <c r="E182" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F182" s="18"/>
+      <c r="E182" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F182" s="16"/>
       <c r="G182" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H182" s="17" t="s">
+      <c r="H182" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I182" s="18"/>
+      <c r="I182" s="16"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -7140,17 +7158,17 @@
       <c r="D183" s="7">
         <v>8878397568</v>
       </c>
-      <c r="E183" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F183" s="18"/>
+      <c r="E183" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F183" s="16"/>
       <c r="G183" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H183" s="17" t="s">
+      <c r="H183" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I183" s="18"/>
+      <c r="I183" s="16"/>
     </row>
     <row r="184" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
@@ -7165,17 +7183,17 @@
       <c r="D184" s="7">
         <v>7697386985</v>
       </c>
-      <c r="E184" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F184" s="18"/>
+      <c r="E184" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" s="16"/>
       <c r="G184" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H184" s="17" t="s">
+      <c r="H184" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I184" s="18"/>
+      <c r="I184" s="16"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
@@ -7190,17 +7208,17 @@
       <c r="D185" s="7">
         <v>9009073634</v>
       </c>
-      <c r="E185" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F185" s="18"/>
+      <c r="E185" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F185" s="16"/>
       <c r="G185" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H185" s="17" t="s">
+      <c r="H185" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I185" s="18"/>
+      <c r="I185" s="16"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
@@ -7215,17 +7233,17 @@
       <c r="D186" s="7">
         <v>9165549522</v>
       </c>
-      <c r="E186" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F186" s="18"/>
+      <c r="E186" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F186" s="16"/>
       <c r="G186" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H186" s="17" t="s">
+      <c r="H186" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="I186" s="18"/>
+      <c r="I186" s="16"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
@@ -7240,17 +7258,17 @@
       <c r="D187" s="13">
         <v>9584567497</v>
       </c>
-      <c r="E187" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F187" s="20"/>
+      <c r="E187" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F187" s="18"/>
       <c r="G187" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H187" s="17" t="s">
+      <c r="H187" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="I187" s="18"/>
+      <c r="I187" s="16"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -7265,17 +7283,17 @@
       <c r="D188" s="7">
         <v>9098706508</v>
       </c>
-      <c r="E188" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F188" s="18"/>
+      <c r="E188" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F188" s="16"/>
       <c r="G188" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H188" s="17" t="s">
+      <c r="H188" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I188" s="18"/>
+      <c r="I188" s="16"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
@@ -7290,17 +7308,17 @@
       <c r="D189" s="7">
         <v>7898434435</v>
       </c>
-      <c r="E189" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F189" s="18"/>
+      <c r="E189" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F189" s="16"/>
       <c r="G189" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H189" s="17" t="s">
+      <c r="H189" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I189" s="18"/>
+      <c r="I189" s="16"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
@@ -7313,17 +7331,17 @@
         <v>525</v>
       </c>
       <c r="D190" s="14"/>
-      <c r="E190" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F190" s="18"/>
+      <c r="E190" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" s="16"/>
       <c r="G190" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H190" s="17" t="s">
+      <c r="H190" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I190" s="18"/>
+      <c r="I190" s="16"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
@@ -7338,17 +7356,17 @@
       <c r="D191" s="7">
         <v>9406583660</v>
       </c>
-      <c r="E191" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F191" s="18"/>
+      <c r="E191" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F191" s="16"/>
       <c r="G191" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H191" s="17" t="s">
+      <c r="H191" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I191" s="18"/>
+      <c r="I191" s="16"/>
     </row>
     <row r="192" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
@@ -7363,17 +7381,17 @@
       <c r="D192" s="7">
         <v>8962744549</v>
       </c>
-      <c r="E192" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F192" s="18"/>
+      <c r="E192" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F192" s="16"/>
       <c r="G192" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H192" s="17" t="s">
+      <c r="H192" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="I192" s="18"/>
+      <c r="I192" s="16"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
@@ -7388,17 +7406,17 @@
       <c r="D193" s="7">
         <v>8358848988</v>
       </c>
-      <c r="E193" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F193" s="18"/>
+      <c r="E193" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F193" s="16"/>
       <c r="G193" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="H193" s="17" t="s">
+      <c r="H193" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="I193" s="18"/>
+      <c r="I193" s="16"/>
     </row>
     <row r="194" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
@@ -7413,17 +7431,17 @@
       <c r="D194" s="7">
         <v>9754540910</v>
       </c>
-      <c r="E194" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F194" s="18"/>
+      <c r="E194" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F194" s="16"/>
       <c r="G194" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H194" s="17" t="s">
+      <c r="H194" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I194" s="18"/>
+      <c r="I194" s="16"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
@@ -7438,17 +7456,17 @@
       <c r="D195" s="7">
         <v>9584387103</v>
       </c>
-      <c r="E195" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F195" s="18"/>
+      <c r="E195" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F195" s="16"/>
       <c r="G195" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H195" s="17" t="s">
+      <c r="H195" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I195" s="18"/>
+      <c r="I195" s="16"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
@@ -7463,17 +7481,17 @@
       <c r="D196" s="7">
         <v>8871002969</v>
       </c>
-      <c r="E196" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F196" s="18"/>
+      <c r="E196" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196" s="16"/>
       <c r="G196" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H196" s="17" t="s">
+      <c r="H196" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I196" s="18"/>
+      <c r="I196" s="16"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
@@ -7488,17 +7506,17 @@
       <c r="D197" s="7">
         <v>7415873332</v>
       </c>
-      <c r="E197" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F197" s="18"/>
+      <c r="E197" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F197" s="16"/>
       <c r="G197" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H197" s="17" t="s">
+      <c r="H197" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I197" s="18"/>
+      <c r="I197" s="16"/>
     </row>
     <row r="198" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
@@ -7513,17 +7531,17 @@
       <c r="D198" s="7">
         <v>7241125211</v>
       </c>
-      <c r="E198" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F198" s="18"/>
+      <c r="E198" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F198" s="16"/>
       <c r="G198" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H198" s="17" t="s">
+      <c r="H198" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I198" s="18"/>
+      <c r="I198" s="16"/>
     </row>
     <row r="199" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
@@ -7538,17 +7556,17 @@
       <c r="D199" s="7">
         <v>7869624511</v>
       </c>
-      <c r="E199" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F199" s="18"/>
+      <c r="E199" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" s="16"/>
       <c r="G199" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H199" s="17" t="s">
+      <c r="H199" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I199" s="18"/>
+      <c r="I199" s="16"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
@@ -7563,17 +7581,17 @@
       <c r="D200" s="7">
         <v>8989164540</v>
       </c>
-      <c r="E200" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F200" s="18"/>
+      <c r="E200" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" s="16"/>
       <c r="G200" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H200" s="17" t="s">
+      <c r="H200" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I200" s="18"/>
+      <c r="I200" s="16"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
@@ -7588,17 +7606,17 @@
       <c r="D201" s="13">
         <v>8518835865</v>
       </c>
-      <c r="E201" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F201" s="20"/>
+      <c r="E201" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F201" s="18"/>
       <c r="G201" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H201" s="19" t="s">
+      <c r="H201" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="I201" s="20"/>
+      <c r="I201" s="18"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
@@ -7613,17 +7631,17 @@
       <c r="D202" s="7">
         <v>9926450027</v>
       </c>
-      <c r="E202" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F202" s="18"/>
+      <c r="E202" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F202" s="16"/>
       <c r="G202" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H202" s="17" t="s">
+      <c r="H202" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="I202" s="18"/>
+      <c r="I202" s="16"/>
     </row>
     <row r="203" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
@@ -7638,17 +7656,17 @@
       <c r="D203" s="7">
         <v>9589547757</v>
       </c>
-      <c r="E203" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F203" s="18"/>
+      <c r="E203" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F203" s="16"/>
       <c r="G203" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H203" s="17" t="s">
+      <c r="H203" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I203" s="18"/>
+      <c r="I203" s="16"/>
     </row>
     <row r="204" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
@@ -7663,17 +7681,17 @@
       <c r="D204" s="7">
         <v>9406869982</v>
       </c>
-      <c r="E204" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F204" s="18"/>
+      <c r="E204" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F204" s="16"/>
       <c r="G204" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H204" s="17" t="s">
+      <c r="H204" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I204" s="18"/>
+      <c r="I204" s="16"/>
     </row>
     <row r="205" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
@@ -7688,17 +7706,17 @@
       <c r="D205" s="13">
         <v>8889043042</v>
       </c>
-      <c r="E205" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F205" s="20"/>
+      <c r="E205" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F205" s="18"/>
       <c r="G205" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H205" s="17" t="s">
+      <c r="H205" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="I205" s="18"/>
+      <c r="I205" s="16"/>
     </row>
     <row r="206" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
@@ -7713,17 +7731,17 @@
       <c r="D206" s="7">
         <v>9753340764</v>
       </c>
-      <c r="E206" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F206" s="18"/>
+      <c r="E206" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F206" s="16"/>
       <c r="G206" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H206" s="17" t="s">
+      <c r="H206" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I206" s="18"/>
+      <c r="I206" s="16"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
@@ -7738,17 +7756,17 @@
       <c r="D207" s="7">
         <v>9009187997</v>
       </c>
-      <c r="E207" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F207" s="18"/>
+      <c r="E207" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F207" s="16"/>
       <c r="G207" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H207" s="17" t="s">
+      <c r="H207" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I207" s="18"/>
+      <c r="I207" s="16"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
@@ -7763,17 +7781,17 @@
       <c r="D208" s="7">
         <v>8319391282</v>
       </c>
-      <c r="E208" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F208" s="18"/>
+      <c r="E208" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F208" s="16"/>
       <c r="G208" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H208" s="17" t="s">
+      <c r="H208" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I208" s="18"/>
+      <c r="I208" s="16"/>
     </row>
     <row r="209" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
@@ -7788,17 +7806,17 @@
       <c r="D209" s="7">
         <v>9584971272</v>
       </c>
-      <c r="E209" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F209" s="18"/>
+      <c r="E209" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F209" s="16"/>
       <c r="G209" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H209" s="17" t="s">
+      <c r="H209" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I209" s="18"/>
+      <c r="I209" s="16"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -7813,17 +7831,17 @@
       <c r="D210" s="7">
         <v>9691505132</v>
       </c>
-      <c r="E210" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F210" s="18"/>
+      <c r="E210" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F210" s="16"/>
       <c r="G210" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H210" s="17" t="s">
+      <c r="H210" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I210" s="18"/>
+      <c r="I210" s="16"/>
     </row>
     <row r="211" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
@@ -7838,17 +7856,17 @@
       <c r="D211" s="7">
         <v>8103214856</v>
       </c>
-      <c r="E211" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F211" s="18"/>
+      <c r="E211" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F211" s="16"/>
       <c r="G211" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H211" s="17" t="s">
+      <c r="H211" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I211" s="18"/>
+      <c r="I211" s="16"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
@@ -7863,17 +7881,17 @@
       <c r="D212" s="7">
         <v>9617633897</v>
       </c>
-      <c r="E212" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F212" s="18"/>
+      <c r="E212" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F212" s="16"/>
       <c r="G212" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H212" s="17" t="s">
+      <c r="H212" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I212" s="18"/>
+      <c r="I212" s="16"/>
     </row>
     <row r="213" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
@@ -7888,17 +7906,17 @@
       <c r="D213" s="7">
         <v>7049612955</v>
       </c>
-      <c r="E213" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F213" s="18"/>
+      <c r="E213" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F213" s="16"/>
       <c r="G213" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H213" s="17" t="s">
+      <c r="H213" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I213" s="18"/>
+      <c r="I213" s="16"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
@@ -7913,17 +7931,17 @@
       <c r="D214" s="7">
         <v>7049612955</v>
       </c>
-      <c r="E214" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F214" s="18"/>
+      <c r="E214" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F214" s="16"/>
       <c r="G214" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H214" s="17" t="s">
+      <c r="H214" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I214" s="18"/>
+      <c r="I214" s="16"/>
     </row>
     <row r="215" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
@@ -7938,17 +7956,17 @@
       <c r="D215" s="7">
         <v>7024551908</v>
       </c>
-      <c r="E215" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F215" s="18"/>
+      <c r="E215" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F215" s="16"/>
       <c r="G215" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="H215" s="17" t="s">
+      <c r="H215" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="I215" s="18"/>
+      <c r="I215" s="16"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
@@ -7963,17 +7981,17 @@
       <c r="D216" s="7">
         <v>8236050118</v>
       </c>
-      <c r="E216" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F216" s="18"/>
+      <c r="E216" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F216" s="16"/>
       <c r="G216" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H216" s="17" t="s">
+      <c r="H216" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I216" s="18"/>
+      <c r="I216" s="16"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
@@ -7988,17 +8006,17 @@
       <c r="D217" s="7">
         <v>7898703698</v>
       </c>
-      <c r="E217" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F217" s="18"/>
+      <c r="E217" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F217" s="16"/>
       <c r="G217" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H217" s="17" t="s">
+      <c r="H217" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="I217" s="18"/>
+      <c r="I217" s="16"/>
     </row>
     <row r="218" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
@@ -8013,17 +8031,17 @@
       <c r="D218" s="7">
         <v>7828589305</v>
       </c>
-      <c r="E218" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F218" s="18"/>
+      <c r="E218" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F218" s="16"/>
       <c r="G218" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H218" s="17" t="s">
+      <c r="H218" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="I218" s="18"/>
+      <c r="I218" s="16"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
@@ -8038,17 +8056,17 @@
       <c r="D219" s="7">
         <v>9479888940</v>
       </c>
-      <c r="E219" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F219" s="18"/>
+      <c r="E219" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F219" s="16"/>
       <c r="G219" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H219" s="17" t="s">
+      <c r="H219" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="I219" s="18"/>
+      <c r="I219" s="16"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
@@ -8063,17 +8081,17 @@
       <c r="D220" s="7">
         <v>7879691307</v>
       </c>
-      <c r="E220" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F220" s="18"/>
+      <c r="E220" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F220" s="16"/>
       <c r="G220" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H220" s="17" t="s">
+      <c r="H220" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I220" s="18"/>
+      <c r="I220" s="16"/>
     </row>
     <row r="221" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
@@ -8088,17 +8106,17 @@
       <c r="D221" s="7">
         <v>9165119753</v>
       </c>
-      <c r="E221" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F221" s="18"/>
+      <c r="E221" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F221" s="16"/>
       <c r="G221" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H221" s="17" t="s">
+      <c r="H221" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I221" s="18"/>
+      <c r="I221" s="16"/>
     </row>
     <row r="222" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
@@ -8113,17 +8131,17 @@
       <c r="D222" s="7">
         <v>8871148091</v>
       </c>
-      <c r="E222" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F222" s="18"/>
+      <c r="E222" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F222" s="16"/>
       <c r="G222" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H222" s="17" t="s">
+      <c r="H222" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="I222" s="18"/>
+      <c r="I222" s="16"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
@@ -8138,17 +8156,17 @@
       <c r="D223" s="7">
         <v>8966939317</v>
       </c>
-      <c r="E223" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F223" s="18"/>
+      <c r="E223" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F223" s="16"/>
       <c r="G223" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H223" s="17" t="s">
+      <c r="H223" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I223" s="18"/>
+      <c r="I223" s="16"/>
     </row>
     <row r="224" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
@@ -8163,17 +8181,17 @@
       <c r="D224" s="7">
         <v>7746010980</v>
       </c>
-      <c r="E224" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F224" s="18"/>
+      <c r="E224" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F224" s="16"/>
       <c r="G224" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H224" s="17" t="s">
+      <c r="H224" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="I224" s="18"/>
+      <c r="I224" s="16"/>
     </row>
     <row r="225" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
@@ -8188,17 +8206,17 @@
       <c r="D225" s="7">
         <v>9993185423</v>
       </c>
-      <c r="E225" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F225" s="18"/>
+      <c r="E225" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F225" s="16"/>
       <c r="G225" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H225" s="17" t="s">
+      <c r="H225" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="I225" s="18"/>
+      <c r="I225" s="16"/>
     </row>
     <row r="226" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
@@ -8213,17 +8231,17 @@
       <c r="D226" s="7">
         <v>7869360392</v>
       </c>
-      <c r="E226" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F226" s="18"/>
+      <c r="E226" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F226" s="16"/>
       <c r="G226" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H226" s="17" t="s">
+      <c r="H226" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="I226" s="18"/>
+      <c r="I226" s="16"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
@@ -8238,17 +8256,17 @@
       <c r="D227" s="7">
         <v>9713639615</v>
       </c>
-      <c r="E227" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F227" s="18"/>
+      <c r="E227" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F227" s="16"/>
       <c r="G227" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H227" s="17" t="s">
+      <c r="H227" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I227" s="18"/>
+      <c r="I227" s="16"/>
     </row>
     <row r="228" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
@@ -8263,17 +8281,17 @@
       <c r="D228" s="7">
         <v>9907738977</v>
       </c>
-      <c r="E228" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F228" s="18"/>
+      <c r="E228" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F228" s="16"/>
       <c r="G228" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H228" s="17" t="s">
+      <c r="H228" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="I228" s="18"/>
+      <c r="I228" s="16"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
@@ -8288,17 +8306,17 @@
       <c r="D229" s="7">
         <v>8770988098</v>
       </c>
-      <c r="E229" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F229" s="18"/>
+      <c r="E229" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F229" s="16"/>
       <c r="G229" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H229" s="17" t="s">
+      <c r="H229" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I229" s="18"/>
+      <c r="I229" s="16"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
@@ -8313,17 +8331,17 @@
       <c r="D230" s="7">
         <v>7898640474</v>
       </c>
-      <c r="E230" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F230" s="18"/>
+      <c r="E230" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F230" s="16"/>
       <c r="G230" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H230" s="17" t="s">
+      <c r="H230" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I230" s="18"/>
+      <c r="I230" s="16"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
@@ -8338,17 +8356,17 @@
       <c r="D231" s="7">
         <v>9165750446</v>
       </c>
-      <c r="E231" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F231" s="18"/>
+      <c r="E231" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F231" s="16"/>
       <c r="G231" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H231" s="17" t="s">
+      <c r="H231" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="I231" s="18"/>
+      <c r="I231" s="16"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
@@ -8363,17 +8381,17 @@
       <c r="D232" s="7">
         <v>9424818538</v>
       </c>
-      <c r="E232" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F232" s="18"/>
+      <c r="E232" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F232" s="16"/>
       <c r="G232" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H232" s="17" t="s">
+      <c r="H232" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="I232" s="18"/>
+      <c r="I232" s="16"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
@@ -8382,21 +8400,23 @@
       <c r="B233" s="6">
         <v>2015</v>
       </c>
-      <c r="C233" s="14"/>
+      <c r="C233" s="21" t="s">
+        <v>638</v>
+      </c>
       <c r="D233" s="7">
         <v>7898974115</v>
       </c>
-      <c r="E233" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F233" s="18"/>
+      <c r="E233" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F233" s="16"/>
       <c r="G233" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H233" s="17" t="s">
+      <c r="H233" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="I233" s="18"/>
+      <c r="I233" s="16"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
@@ -8411,17 +8431,17 @@
       <c r="D234" s="7">
         <v>8349645409</v>
       </c>
-      <c r="E234" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F234" s="18"/>
+      <c r="E234" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F234" s="16"/>
       <c r="G234" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H234" s="17" t="s">
+      <c r="H234" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="I234" s="18"/>
+      <c r="I234" s="16"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
@@ -8436,474 +8456,20 @@
       <c r="D235" s="7">
         <v>8819944034</v>
       </c>
-      <c r="E235" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F235" s="18"/>
+      <c r="E235" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F235" s="16"/>
       <c r="G235" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H235" s="17" t="s">
+      <c r="H235" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="I235" s="18"/>
+      <c r="I235" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="470">
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="E2:F2"/>
@@ -8920,6 +8486,460 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="H227:I227"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="mailto:aniljvyas@gmail.com"/>
@@ -9156,8 +9176,9 @@
     <hyperlink ref="C232" r:id="rId232" display="mailto:yjain1426@gmail.com"/>
     <hyperlink ref="C234" r:id="rId233" display="mailto:yash.s.patni@gmail.com"/>
     <hyperlink ref="C235" r:id="rId234" display="mailto:yashsokal@gmail.com"/>
+    <hyperlink ref="C233" r:id="rId235"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId235"/>
+  <pageSetup orientation="portrait" r:id="rId236"/>
 </worksheet>
 </file>